--- a/Washing Machine Design Calculations.xlsx
+++ b/Washing Machine Design Calculations.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/dcdf7eb514dfaeec/Projects/Microgravity-Press-Washing-Machine/System Design and Documentation/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/dcdf7eb514dfaeec/Projects/Microgravity-Press-Washing-Machine/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="1720" documentId="13_ncr:1_{4AAA6B9C-80F3-4AB5-A3F7-F08D2B1D8BA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{94A95C2E-6360-4CD9-AC68-BEE947E29BD9}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="2" activeTab="2" xr2:uid="{73A7591B-B5CA-4318-9343-9B3FDBEBCAB4}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" firstSheet="1" activeTab="4" xr2:uid="{73A7591B-B5CA-4318-9343-9B3FDBEBCAB4}"/>
   </bookViews>
   <sheets>
     <sheet name="Design and Material Specs" sheetId="2" r:id="rId1"/>
@@ -1721,10 +1721,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -2048,23 +2044,23 @@
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="2" max="2" width="17" customWidth="1"/>
-    <col min="3" max="3" width="32.28515625" customWidth="1"/>
-    <col min="12" max="12" width="8.140625" customWidth="1"/>
-    <col min="13" max="13" width="19.140625" customWidth="1"/>
-    <col min="14" max="14" width="18.7109375" customWidth="1"/>
-    <col min="15" max="15" width="18.42578125" customWidth="1"/>
-    <col min="16" max="16" width="14.7109375" customWidth="1"/>
+    <col min="3" max="3" width="32.265625" customWidth="1"/>
+    <col min="12" max="12" width="8.1328125" customWidth="1"/>
+    <col min="13" max="13" width="19.1328125" customWidth="1"/>
+    <col min="14" max="14" width="18.73046875" customWidth="1"/>
+    <col min="15" max="15" width="18.3984375" customWidth="1"/>
+    <col min="16" max="16" width="14.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="3:17" x14ac:dyDescent="0.45">
       <c r="M2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:17" x14ac:dyDescent="0.45">
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -2081,7 +2077,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:17" x14ac:dyDescent="0.45">
       <c r="C4" t="s">
         <v>15</v>
       </c>
@@ -2110,7 +2106,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:17" x14ac:dyDescent="0.45">
       <c r="C5" t="s">
         <v>0</v>
       </c>
@@ -2137,7 +2133,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="6" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:17" x14ac:dyDescent="0.45">
       <c r="C6" t="s">
         <v>6</v>
       </c>
@@ -2148,7 +2144,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:17" x14ac:dyDescent="0.45">
       <c r="C7" t="s">
         <v>10</v>
       </c>
@@ -2159,17 +2155,17 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:17" x14ac:dyDescent="0.45">
       <c r="C8" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:17" x14ac:dyDescent="0.45">
       <c r="C9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:17" x14ac:dyDescent="0.45">
       <c r="C10" t="s">
         <v>67</v>
       </c>
@@ -2180,12 +2176,12 @@
         <v>71</v>
       </c>
     </row>
-    <row r="11" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:17" x14ac:dyDescent="0.45">
       <c r="C11" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="12" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:17" x14ac:dyDescent="0.45">
       <c r="C12" t="s">
         <v>69</v>
       </c>
@@ -2199,7 +2195,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="13" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:17" x14ac:dyDescent="0.45">
       <c r="C13" t="s">
         <v>70</v>
       </c>
@@ -2216,7 +2212,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:17" x14ac:dyDescent="0.45">
       <c r="C14" t="s">
         <v>72</v>
       </c>
@@ -2236,7 +2232,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="15" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:17" x14ac:dyDescent="0.45">
       <c r="M15" t="s">
         <v>207</v>
       </c>
@@ -2250,7 +2246,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="16" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="3:17" x14ac:dyDescent="0.45">
       <c r="M16" t="s">
         <v>251</v>
       </c>
@@ -2258,12 +2254,12 @@
         <v>4.4482220000000003</v>
       </c>
     </row>
-    <row r="22" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:5" x14ac:dyDescent="0.45">
       <c r="C22" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="23" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:5" x14ac:dyDescent="0.45">
       <c r="C23" t="s">
         <v>69</v>
       </c>
@@ -2274,7 +2270,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="24" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:5" x14ac:dyDescent="0.45">
       <c r="C24" t="s">
         <v>70</v>
       </c>
@@ -2286,7 +2282,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="25" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:5" x14ac:dyDescent="0.45">
       <c r="C25" t="s">
         <v>72</v>
       </c>
@@ -2297,7 +2293,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="26" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:5" x14ac:dyDescent="0.45">
       <c r="C26" t="s">
         <v>3</v>
       </c>
@@ -2305,12 +2301,12 @@
         <v>194</v>
       </c>
     </row>
-    <row r="33" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:4" x14ac:dyDescent="0.45">
       <c r="D33" s="3" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="48" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:4" x14ac:dyDescent="0.45">
       <c r="C48" t="s">
         <v>43</v>
       </c>
@@ -2318,7 +2314,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:13" x14ac:dyDescent="0.45">
       <c r="C50" t="s">
         <v>45</v>
       </c>
@@ -2341,7 +2337,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:13" x14ac:dyDescent="0.45">
       <c r="C51" t="s">
         <v>50</v>
       </c>
@@ -2361,7 +2357,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:13" x14ac:dyDescent="0.45">
       <c r="C52" t="s">
         <v>54</v>
       </c>
@@ -2381,7 +2377,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:13" x14ac:dyDescent="0.45">
       <c r="C53" t="s">
         <v>58</v>
       </c>
@@ -2395,7 +2391,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:13" x14ac:dyDescent="0.45">
       <c r="C54" t="s">
         <v>60</v>
       </c>
@@ -2415,7 +2411,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:13" x14ac:dyDescent="0.45">
       <c r="C55" t="s">
         <v>64</v>
       </c>
@@ -2454,23 +2450,23 @@
       <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="40.28515625" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="41.140625" customWidth="1"/>
-    <col min="6" max="6" width="35.85546875" customWidth="1"/>
-    <col min="8" max="8" width="5.7109375" customWidth="1"/>
-    <col min="10" max="10" width="12.28515625" customWidth="1"/>
-    <col min="11" max="11" width="39.140625" customWidth="1"/>
-    <col min="13" max="13" width="5.85546875" customWidth="1"/>
-    <col min="16" max="16" width="31.140625" customWidth="1"/>
-    <col min="18" max="18" width="8.7109375" customWidth="1"/>
-    <col min="21" max="21" width="22.85546875" customWidth="1"/>
+    <col min="1" max="1" width="40.265625" customWidth="1"/>
+    <col min="2" max="2" width="10.73046875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="41.1328125" customWidth="1"/>
+    <col min="6" max="6" width="35.86328125" customWidth="1"/>
+    <col min="8" max="8" width="5.73046875" customWidth="1"/>
+    <col min="10" max="10" width="12.265625" customWidth="1"/>
+    <col min="11" max="11" width="39.1328125" customWidth="1"/>
+    <col min="13" max="13" width="5.86328125" customWidth="1"/>
+    <col min="16" max="16" width="31.1328125" customWidth="1"/>
+    <col min="18" max="18" width="8.73046875" customWidth="1"/>
+    <col min="21" max="21" width="22.86328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="2" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A2" s="24" t="s">
         <v>121</v>
       </c>
@@ -2493,7 +2489,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A3" s="10" t="s">
         <v>131</v>
       </c>
@@ -2534,7 +2530,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="4" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:35" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A4" s="10" t="s">
         <v>1</v>
       </c>
@@ -2591,7 +2587,7 @@
       <c r="AH4" s="46"/>
       <c r="AI4" s="46"/>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A5" s="10" t="s">
         <v>147</v>
       </c>
@@ -2636,7 +2632,7 @@
       <c r="AH5" s="48"/>
       <c r="AI5" s="49"/>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A6" s="13"/>
       <c r="B6" s="5" t="s">
         <v>14</v>
@@ -2699,7 +2695,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A7" s="10" t="s">
         <v>85</v>
       </c>
@@ -2764,7 +2760,7 @@
       </c>
       <c r="AI7" s="22"/>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A8" s="10" t="s">
         <v>83</v>
       </c>
@@ -2829,7 +2825,7 @@
       <c r="AH8" s="21"/>
       <c r="AI8" s="22"/>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A9" s="10" t="s">
         <v>86</v>
       </c>
@@ -2895,7 +2891,7 @@
       </c>
       <c r="AI9" s="22"/>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A10" s="10" t="s">
         <v>89</v>
       </c>
@@ -2959,7 +2955,7 @@
       <c r="AH10" s="21"/>
       <c r="AI10" s="22"/>
     </row>
-    <row r="11" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:35" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A11" s="10" t="s">
         <v>10</v>
       </c>
@@ -3016,7 +3012,7 @@
       <c r="AH11" s="21"/>
       <c r="AI11" s="22"/>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A12" s="10" t="s">
         <v>90</v>
       </c>
@@ -3072,7 +3068,7 @@
       <c r="AH12" s="21"/>
       <c r="AI12" s="22"/>
     </row>
-    <row r="13" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:35" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A13" s="10" t="s">
         <v>93</v>
       </c>
@@ -3120,7 +3116,7 @@
       <c r="AH13" s="51"/>
       <c r="AI13" s="52"/>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A14" s="13"/>
       <c r="B14" s="21"/>
       <c r="C14" s="21"/>
@@ -3150,7 +3146,7 @@
       <c r="AH14" s="46"/>
       <c r="AI14" s="46"/>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A15" s="14" t="s">
         <v>94</v>
       </c>
@@ -3184,7 +3180,7 @@
       <c r="AH15" s="46"/>
       <c r="AI15" s="46"/>
     </row>
-    <row r="16" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:35" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A16" s="14" t="s">
         <v>91</v>
       </c>
@@ -3222,7 +3218,7 @@
       <c r="AH16" s="46"/>
       <c r="AI16" s="46"/>
     </row>
-    <row r="17" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:35" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A17" s="14" t="s">
         <v>96</v>
       </c>
@@ -3259,7 +3255,7 @@
       <c r="AH17" s="46"/>
       <c r="AI17" s="46"/>
     </row>
-    <row r="18" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:35" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A18" s="18" t="s">
         <v>105</v>
       </c>
@@ -3295,7 +3291,7 @@
       <c r="AH18" s="46"/>
       <c r="AI18" s="46"/>
     </row>
-    <row r="19" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:35" x14ac:dyDescent="0.45">
       <c r="W19" s="21">
         <f>0.125</f>
         <v>0.125</v>
@@ -3322,7 +3318,7 @@
       <c r="AH19" s="46"/>
       <c r="AI19" s="46"/>
     </row>
-    <row r="20" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:35" x14ac:dyDescent="0.45">
       <c r="W20" s="21">
         <f>SS303FatigueStrength</f>
         <v>34800</v>
@@ -3349,7 +3345,7 @@
       <c r="AH20" s="46"/>
       <c r="AI20" s="46"/>
     </row>
-    <row r="21" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:35" x14ac:dyDescent="0.45">
       <c r="F21" t="s">
         <v>119</v>
       </c>
@@ -3376,7 +3372,7 @@
       <c r="AH21" s="46"/>
       <c r="AI21" s="46"/>
     </row>
-    <row r="22" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A22" s="3" t="s">
         <v>146</v>
       </c>
@@ -3412,7 +3408,7 @@
       <c r="AH22" s="46"/>
       <c r="AI22" s="46"/>
     </row>
-    <row r="23" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:35" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A23" t="s">
         <v>136</v>
       </c>
@@ -3440,7 +3436,7 @@
       <c r="AH23" s="46"/>
       <c r="AI23" s="46"/>
     </row>
-    <row r="24" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:35" x14ac:dyDescent="0.45">
       <c r="W24" s="46"/>
       <c r="X24" s="46"/>
       <c r="Y24" s="46"/>
@@ -3460,7 +3456,7 @@
       <c r="AH24" s="46"/>
       <c r="AI24" s="46"/>
     </row>
-    <row r="27" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:35" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A27" t="s">
         <v>173</v>
       </c>
@@ -3468,7 +3464,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="28" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A28" s="31"/>
       <c r="B28" s="32" t="s">
         <v>14</v>
@@ -3490,7 +3486,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="29" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A29" s="10" t="s">
         <v>149</v>
       </c>
@@ -3512,7 +3508,7 @@
         <v>50.31</v>
       </c>
     </row>
-    <row r="30" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A30" s="10" t="s">
         <v>150</v>
       </c>
@@ -3530,7 +3526,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="31" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A31" s="10" t="s">
         <v>153</v>
       </c>
@@ -3546,7 +3542,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="32" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A32" s="10" t="s">
         <v>255</v>
       </c>
@@ -3558,7 +3554,7 @@
       </c>
       <c r="D32" s="11"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A33" s="10" t="s">
         <v>158</v>
       </c>
@@ -3568,7 +3564,7 @@
       <c r="C33" s="5"/>
       <c r="D33" s="11"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A34" s="10" t="s">
         <v>159</v>
       </c>
@@ -3584,7 +3580,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A35" s="10" t="s">
         <v>159</v>
       </c>
@@ -3597,7 +3593,7 @@
       </c>
       <c r="D35" s="11"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A36" s="10" t="s">
         <v>159</v>
       </c>
@@ -3610,7 +3606,7 @@
       </c>
       <c r="D36" s="11"/>
     </row>
-    <row r="37" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A37" s="23" t="s">
         <v>139</v>
       </c>
@@ -3621,12 +3617,12 @@
       <c r="C37" s="34"/>
       <c r="D37" s="30"/>
     </row>
-    <row r="40" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="F40" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A41" t="s">
         <v>124</v>
       </c>
@@ -3641,7 +3637,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A42" s="31"/>
       <c r="B42" s="32" t="s">
         <v>14</v>
@@ -3663,7 +3659,7 @@
       </c>
       <c r="I42" s="11"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A43" s="10" t="s">
         <v>159</v>
       </c>
@@ -3686,7 +3682,7 @@
       </c>
       <c r="I43" s="11"/>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A44" s="10" t="s">
         <v>159</v>
       </c>
@@ -3708,7 +3704,7 @@
       <c r="H44" s="5"/>
       <c r="I44" s="11"/>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A45" s="10" t="s">
         <v>159</v>
       </c>
@@ -3732,7 +3728,7 @@
       </c>
       <c r="I45" s="11"/>
     </row>
-    <row r="46" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A46" s="23" t="s">
         <v>159</v>
       </c>
@@ -3756,7 +3752,7 @@
       </c>
       <c r="I46" s="11"/>
     </row>
-    <row r="47" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="F47" s="23" t="s">
         <v>236</v>
       </c>
@@ -3769,17 +3765,17 @@
       </c>
       <c r="I47" s="30"/>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.45">
       <c r="D50">
         <v>50</v>
       </c>
@@ -3787,7 +3783,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.45">
       <c r="D51">
         <f>2*PI()*D50/60</f>
         <v>5.2359877559829888</v>
@@ -3799,7 +3795,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.45">
       <c r="D52">
         <f>B46</f>
         <v>11.368533496495498</v>
@@ -3808,7 +3804,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.45">
       <c r="D53">
         <f>D51*D52</f>
         <v>59.525502191132908</v>
@@ -3821,7 +3817,7 @@
         <v>107.43264154188245</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.45">
       <c r="D55">
         <v>24</v>
       </c>
@@ -3829,7 +3825,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.45">
       <c r="D56">
         <f>D53/D55</f>
         <v>2.4802292579638712</v>
@@ -3856,25 +3852,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35650138-A39B-40B7-A1C0-41B1A4232402}">
   <dimension ref="A1:X50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="M39" sqref="M39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="39.42578125" customWidth="1"/>
-    <col min="6" max="6" width="34.7109375" customWidth="1"/>
-    <col min="11" max="11" width="25.7109375" customWidth="1"/>
+    <col min="1" max="1" width="39.3984375" customWidth="1"/>
+    <col min="6" max="6" width="34.73046875" customWidth="1"/>
+    <col min="11" max="11" width="25.73046875" customWidth="1"/>
     <col min="16" max="16" width="17" customWidth="1"/>
-    <col min="21" max="21" width="19.7109375" customWidth="1"/>
+    <col min="21" max="21" width="19.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A2" s="31" t="s">
         <v>8</v>
       </c>
@@ -3894,7 +3890,7 @@
       <c r="M2" s="32"/>
       <c r="N2" s="33"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A3" s="10"/>
       <c r="B3" s="5" t="s">
         <v>14</v>
@@ -3926,7 +3922,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A4" s="10" t="s">
         <v>18</v>
       </c>
@@ -3959,7 +3955,7 @@
       </c>
       <c r="N4" s="11"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A5" s="10" t="s">
         <v>19</v>
       </c>
@@ -3992,7 +3988,7 @@
       </c>
       <c r="N5" s="11"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A6" s="10" t="s">
         <v>20</v>
       </c>
@@ -4022,7 +4018,7 @@
       </c>
       <c r="N6" s="11"/>
     </row>
-    <row r="7" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A7" s="10" t="s">
         <v>21</v>
       </c>
@@ -4053,7 +4049,7 @@
       </c>
       <c r="N7" s="30"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A8" s="10" t="s">
         <v>23</v>
       </c>
@@ -4073,7 +4069,7 @@
       <c r="H8" s="5"/>
       <c r="I8" s="5"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A9" s="10" t="s">
         <v>10</v>
       </c>
@@ -4093,7 +4089,7 @@
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A10" s="10" t="s">
         <v>73</v>
       </c>
@@ -4115,7 +4111,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A11" s="10" t="s">
         <v>74</v>
       </c>
@@ -4126,7 +4122,7 @@
       <c r="C11" s="5"/>
       <c r="D11" s="11"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A12" s="10" t="s">
         <v>75</v>
       </c>
@@ -4138,7 +4134,7 @@
       </c>
       <c r="D12" s="11"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A13" s="10"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -4156,7 +4152,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A14" s="10" t="s">
         <v>160</v>
       </c>
@@ -4180,7 +4176,7 @@
       <c r="H14" s="5"/>
       <c r="I14" s="5"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A15" s="35" t="s">
         <v>163</v>
       </c>
@@ -4201,7 +4197,7 @@
       <c r="H15" s="5"/>
       <c r="I15" s="5"/>
     </row>
-    <row r="16" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A16" s="23" t="s">
         <v>87</v>
       </c>
@@ -4218,7 +4214,7 @@
       <c r="H16" s="5"/>
       <c r="I16" s="5"/>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.45">
       <c r="F17" s="5" t="s">
         <v>181</v>
       </c>
@@ -4228,12 +4224,12 @@
       <c r="H17" s="5"/>
       <c r="I17" s="5"/>
     </row>
-    <row r="21" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:24" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A21" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A22" s="31" t="s">
         <v>167</v>
       </c>
@@ -4265,7 +4261,7 @@
       <c r="W22" s="32"/>
       <c r="X22" s="33"/>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A23" s="10"/>
       <c r="B23" s="5" t="s">
         <v>14</v>
@@ -4317,7 +4313,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A24" s="10" t="s">
         <v>80</v>
       </c>
@@ -4367,7 +4363,7 @@
       </c>
       <c r="X24" s="11"/>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A25" s="10" t="s">
         <v>78</v>
       </c>
@@ -4416,7 +4412,7 @@
       </c>
       <c r="X25" s="11"/>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A26" s="10" t="s">
         <v>79</v>
       </c>
@@ -4465,7 +4461,7 @@
       </c>
       <c r="X26" s="11"/>
     </row>
-    <row r="27" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:24" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A27" s="23" t="s">
         <v>77</v>
       </c>
@@ -4511,7 +4507,7 @@
       </c>
       <c r="X27" s="30"/>
     </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.45">
       <c r="F28" s="10" t="s">
         <v>20</v>
       </c>
@@ -4535,7 +4531,7 @@
       <c r="R28" s="5"/>
       <c r="S28" s="5"/>
     </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:24" x14ac:dyDescent="0.45">
       <c r="F29" s="10" t="s">
         <v>21</v>
       </c>
@@ -4561,7 +4557,7 @@
       <c r="R29" s="5"/>
       <c r="S29" s="5"/>
     </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.45">
       <c r="F30" s="10" t="s">
         <v>23</v>
       </c>
@@ -4589,7 +4585,7 @@
       <c r="R30" s="5"/>
       <c r="S30" s="5"/>
     </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.45">
       <c r="F31" s="10" t="s">
         <v>10</v>
       </c>
@@ -4601,7 +4597,7 @@
       </c>
       <c r="I31" s="11"/>
     </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.45">
       <c r="F32" s="10" t="s">
         <v>73</v>
       </c>
@@ -4614,7 +4610,7 @@
       </c>
       <c r="I32" s="11"/>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.45">
       <c r="F33" s="10" t="s">
         <v>74</v>
       </c>
@@ -4639,7 +4635,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.45">
       <c r="F34" s="10" t="s">
         <v>75</v>
       </c>
@@ -4662,7 +4658,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.45">
       <c r="F35" s="10"/>
       <c r="G35" s="5"/>
       <c r="H35" s="5"/>
@@ -4676,7 +4672,7 @@
       <c r="M35" s="5"/>
       <c r="N35" s="5"/>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.45">
       <c r="F36" s="10" t="s">
         <v>160</v>
       </c>
@@ -4700,7 +4696,7 @@
       <c r="M36" s="5"/>
       <c r="N36" s="5"/>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.45">
       <c r="F37" s="10" t="s">
         <v>163</v>
       </c>
@@ -4723,7 +4719,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="38" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="F38" s="23" t="s">
         <v>87</v>
       </c>
@@ -4731,12 +4727,12 @@
       <c r="H38" s="34"/>
       <c r="I38" s="30"/>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A42" s="5" t="s">
         <v>200</v>
       </c>
@@ -4756,7 +4752,7 @@
       <c r="M42" s="5"/>
       <c r="N42" s="5"/>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A43" s="5"/>
       <c r="B43" s="5" t="s">
         <v>14</v>
@@ -4788,7 +4784,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A44" s="5" t="s">
         <v>191</v>
       </c>
@@ -4821,7 +4817,7 @@
       </c>
       <c r="N44" s="5"/>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A45" s="5" t="s">
         <v>192</v>
       </c>
@@ -4857,7 +4853,7 @@
       </c>
       <c r="N45" s="5"/>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A46" s="5" t="s">
         <v>198</v>
       </c>
@@ -4889,7 +4885,7 @@
       <c r="M46" s="5"/>
       <c r="N46" s="5"/>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A47" s="5" t="s">
         <v>196</v>
       </c>
@@ -4922,7 +4918,7 @@
       <c r="M47" s="5"/>
       <c r="N47" s="5"/>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A48" s="5" t="s">
         <v>10</v>
       </c>
@@ -4944,7 +4940,7 @@
       <c r="M48" s="5"/>
       <c r="N48" s="5"/>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A49" s="5" t="s">
         <v>241</v>
       </c>
@@ -4964,7 +4960,7 @@
       <c r="M49" s="5"/>
       <c r="N49" s="5"/>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A50" s="5" t="s">
         <v>240</v>
       </c>
@@ -4999,14 +4995,14 @@
       <selection activeCell="H45" sqref="H45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="26.5703125" customWidth="1"/>
+    <col min="2" max="2" width="26.59765625" customWidth="1"/>
     <col min="7" max="7" width="26" customWidth="1"/>
-    <col min="12" max="12" width="32.7109375" customWidth="1"/>
+    <col min="12" max="12" width="32.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B5" s="5" t="s">
         <v>200</v>
       </c>
@@ -5026,7 +5022,7 @@
       <c r="N5" s="5"/>
       <c r="O5" s="5"/>
     </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B6" s="5"/>
       <c r="C6" s="5" t="s">
         <v>14</v>
@@ -5058,7 +5054,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B7" s="5" t="s">
         <v>191</v>
       </c>
@@ -5091,7 +5087,7 @@
       </c>
       <c r="O7" s="5"/>
     </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B8" s="5" t="s">
         <v>192</v>
       </c>
@@ -5127,7 +5123,7 @@
       </c>
       <c r="O8" s="5"/>
     </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B9" s="5" t="s">
         <v>198</v>
       </c>
@@ -5159,7 +5155,7 @@
       <c r="N9" s="5"/>
       <c r="O9" s="5"/>
     </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B10" s="5" t="s">
         <v>196</v>
       </c>
@@ -5192,7 +5188,7 @@
       <c r="N10" s="5"/>
       <c r="O10" s="5"/>
     </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B11" s="5" t="s">
         <v>10</v>
       </c>
@@ -5214,7 +5210,7 @@
       <c r="N11" s="5"/>
       <c r="O11" s="5"/>
     </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B12" s="5" t="s">
         <v>241</v>
       </c>
@@ -5234,7 +5230,7 @@
       <c r="N12" s="5"/>
       <c r="O12" s="5"/>
     </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B13" s="5" t="s">
         <v>240</v>
       </c>
@@ -5256,44 +5252,44 @@
         <v>76</v>
       </c>
     </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B16" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:4" x14ac:dyDescent="0.45">
       <c r="C17" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="18" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:4" x14ac:dyDescent="0.45">
       <c r="D18">
         <v>0.125</v>
       </c>
     </row>
-    <row r="19" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:4" x14ac:dyDescent="0.45">
       <c r="D19">
         <v>8.5</v>
       </c>
     </row>
-    <row r="20" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:4" x14ac:dyDescent="0.45">
       <c r="D20">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:4" x14ac:dyDescent="0.45">
       <c r="D21">
         <f>D20*D18*2</f>
         <v>0.25</v>
       </c>
     </row>
-    <row r="22" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:4" x14ac:dyDescent="0.45">
       <c r="D22">
         <f>D19*D18</f>
         <v>1.0625</v>
       </c>
     </row>
-    <row r="23" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:4" x14ac:dyDescent="0.45">
       <c r="C23" t="s">
         <v>343</v>
       </c>
@@ -5302,18 +5298,18 @@
         <v>1.3125</v>
       </c>
     </row>
-    <row r="24" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:4" x14ac:dyDescent="0.45">
       <c r="C24" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.45">
       <c r="C36" s="3"/>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.45">
       <c r="C37" s="3"/>
     </row>
-    <row r="38" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:15" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A38" t="s">
         <v>288</v>
       </c>
@@ -5321,7 +5317,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B39" s="31" t="s">
         <v>268</v>
       </c>
@@ -5341,7 +5337,7 @@
       <c r="N39" s="32"/>
       <c r="O39" s="33"/>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B40" s="10"/>
       <c r="C40" s="5" t="s">
         <v>14</v>
@@ -5373,7 +5369,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B41" s="10" t="s">
         <v>269</v>
       </c>
@@ -5408,7 +5404,7 @@
       </c>
       <c r="O41" s="11"/>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B42" s="10" t="s">
         <v>191</v>
       </c>
@@ -5440,7 +5436,7 @@
       <c r="N42" s="5"/>
       <c r="O42" s="11"/>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B43" s="10" t="s">
         <v>192</v>
       </c>
@@ -5477,7 +5473,7 @@
       </c>
       <c r="O43" s="11"/>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B44" s="10" t="s">
         <v>198</v>
       </c>
@@ -5509,7 +5505,7 @@
       <c r="N44" s="5"/>
       <c r="O44" s="11"/>
     </row>
-    <row r="45" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:15" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B45" s="10" t="s">
         <v>196</v>
       </c>
@@ -5535,7 +5531,7 @@
       <c r="N45" s="5"/>
       <c r="O45" s="11"/>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B46" s="10" t="s">
         <v>10</v>
       </c>
@@ -5556,7 +5552,7 @@
       <c r="N46" s="5"/>
       <c r="O46" s="11"/>
     </row>
-    <row r="47" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:15" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B47" s="10" t="s">
         <v>241</v>
       </c>
@@ -5578,7 +5574,7 @@
       <c r="N47" s="34"/>
       <c r="O47" s="30"/>
     </row>
-    <row r="48" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:15" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B48" s="23" t="s">
         <v>240</v>
       </c>
@@ -5591,12 +5587,12 @@
       </c>
       <c r="E48" s="30"/>
     </row>
-    <row r="53" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:15" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B53" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="54" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B54" s="31" t="s">
         <v>268</v>
       </c>
@@ -5616,7 +5612,7 @@
       <c r="N54" s="32"/>
       <c r="O54" s="33"/>
     </row>
-    <row r="55" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B55" s="10"/>
       <c r="C55" s="5" t="s">
         <v>14</v>
@@ -5648,7 +5644,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="56" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B56" s="10" t="s">
         <v>191</v>
       </c>
@@ -5682,7 +5678,7 @@
       </c>
       <c r="O56" s="11"/>
     </row>
-    <row r="57" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B57" s="10" t="s">
         <v>192</v>
       </c>
@@ -5716,7 +5712,7 @@
       <c r="N57" s="5"/>
       <c r="O57" s="11"/>
     </row>
-    <row r="58" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B58" s="10" t="s">
         <v>198</v>
       </c>
@@ -5751,7 +5747,7 @@
       </c>
       <c r="O58" s="11"/>
     </row>
-    <row r="59" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B59" s="10" t="s">
         <v>196</v>
       </c>
@@ -5783,7 +5779,7 @@
       <c r="N59" s="5"/>
       <c r="O59" s="11"/>
     </row>
-    <row r="60" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:15" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B60" s="10" t="s">
         <v>10</v>
       </c>
@@ -5808,7 +5804,7 @@
       <c r="N60" s="5"/>
       <c r="O60" s="11"/>
     </row>
-    <row r="61" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B61" s="10" t="s">
         <v>241</v>
       </c>
@@ -5830,7 +5826,7 @@
       <c r="N61" s="5"/>
       <c r="O61" s="11"/>
     </row>
-    <row r="62" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:15" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B62" s="23" t="s">
         <v>240</v>
       </c>
@@ -5852,62 +5848,62 @@
       <c r="N62" s="34"/>
       <c r="O62" s="30"/>
     </row>
-    <row r="67" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="68" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="68" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B68" s="31"/>
       <c r="C68" s="32"/>
       <c r="D68" s="32"/>
       <c r="E68" s="33"/>
     </row>
-    <row r="69" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B69" s="10"/>
       <c r="C69" s="5"/>
       <c r="D69" s="5"/>
       <c r="E69" s="11"/>
     </row>
-    <row r="70" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B70" s="10"/>
       <c r="C70" s="5"/>
       <c r="D70" s="5"/>
       <c r="E70" s="11"/>
     </row>
-    <row r="71" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B71" s="10"/>
       <c r="C71" s="5"/>
       <c r="D71" s="5"/>
       <c r="E71" s="11"/>
     </row>
-    <row r="72" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B72" s="10"/>
       <c r="C72" s="5"/>
       <c r="D72" s="5"/>
       <c r="E72" s="11"/>
     </row>
-    <row r="73" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B73" s="10"/>
       <c r="C73" s="5"/>
       <c r="D73" s="5"/>
       <c r="E73" s="11"/>
     </row>
-    <row r="74" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B74" s="10"/>
       <c r="C74" s="5"/>
       <c r="D74" s="5"/>
       <c r="E74" s="11"/>
     </row>
-    <row r="75" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B75" s="10"/>
       <c r="C75" s="5"/>
       <c r="D75" s="5"/>
       <c r="E75" s="11"/>
     </row>
-    <row r="76" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B76" s="10"/>
       <c r="C76" s="5"/>
       <c r="D76" s="5"/>
       <c r="E76" s="11"/>
     </row>
-    <row r="77" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B77" s="23"/>
       <c r="C77" s="34"/>
       <c r="D77" s="34"/>
@@ -5923,28 +5919,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3C7E393-217F-47B1-AEB5-314CED4C9834}">
   <dimension ref="C2:L24"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="4" max="4" width="23.5703125" customWidth="1"/>
+    <col min="4" max="4" width="23.59765625" customWidth="1"/>
     <col min="5" max="5" width="10" customWidth="1"/>
-    <col min="10" max="10" width="29.5703125" customWidth="1"/>
+    <col min="10" max="10" width="29.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="3:12" x14ac:dyDescent="0.45">
       <c r="J2" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="3" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:12" x14ac:dyDescent="0.45">
       <c r="D3" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="4" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:12" x14ac:dyDescent="0.45">
       <c r="C4" t="s">
         <v>16</v>
       </c>
@@ -5961,7 +5957,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="5" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:12" x14ac:dyDescent="0.45">
       <c r="D5" t="s">
         <v>322</v>
       </c>
@@ -5977,7 +5973,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="6" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:12" x14ac:dyDescent="0.45">
       <c r="D6" t="s">
         <v>323</v>
       </c>
@@ -5985,7 +5981,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:12" x14ac:dyDescent="0.45">
       <c r="D7" t="s">
         <v>310</v>
       </c>
@@ -5996,7 +5992,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="8" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:12" x14ac:dyDescent="0.45">
       <c r="D8" t="s">
         <v>301</v>
       </c>
@@ -6007,7 +6003,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="9" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:12" x14ac:dyDescent="0.45">
       <c r="C9" s="3" t="s">
         <v>308</v>
       </c>
@@ -6021,7 +6017,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="10" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:12" x14ac:dyDescent="0.45">
       <c r="C10" s="3"/>
       <c r="D10" t="s">
         <v>325</v>
@@ -6040,7 +6036,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="11" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:12" x14ac:dyDescent="0.45">
       <c r="D11" t="s">
         <v>304</v>
       </c>
@@ -6061,7 +6057,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="12" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:12" x14ac:dyDescent="0.45">
       <c r="C12" s="3" t="s">
         <v>307</v>
       </c>
@@ -6084,7 +6080,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="13" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:12" x14ac:dyDescent="0.45">
       <c r="D13" t="s">
         <v>305</v>
       </c>
@@ -6105,7 +6101,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="14" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:12" x14ac:dyDescent="0.45">
       <c r="D14" t="s">
         <v>309</v>
       </c>
@@ -6126,7 +6122,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="15" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:12" x14ac:dyDescent="0.45">
       <c r="D15" t="s">
         <v>315</v>
       </c>
@@ -6147,7 +6143,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="16" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="3:12" x14ac:dyDescent="0.45">
       <c r="D16" t="s">
         <v>316</v>
       </c>
@@ -6169,7 +6165,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="17" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:12" x14ac:dyDescent="0.45">
       <c r="D17" t="s">
         <v>319</v>
       </c>
@@ -6191,7 +6187,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="18" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:12" x14ac:dyDescent="0.45">
       <c r="J18" t="s">
         <v>332</v>
       </c>
@@ -6203,7 +6199,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="19" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:12" x14ac:dyDescent="0.45">
       <c r="D19" t="s">
         <v>311</v>
       </c>
@@ -6225,7 +6221,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="20" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="4:12" x14ac:dyDescent="0.45">
       <c r="D20" t="s">
         <v>312</v>
       </c>
@@ -6244,7 +6240,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="21" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="4:12" x14ac:dyDescent="0.45">
       <c r="K21">
         <f>K20/12</f>
         <v>27.362046893279853</v>
@@ -6253,7 +6249,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="22" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="4:12" x14ac:dyDescent="0.45">
       <c r="D22" t="s">
         <v>317</v>
       </c>
@@ -6262,7 +6258,7 @@
         <v>2.617993877991494</v>
       </c>
     </row>
-    <row r="23" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E23">
         <f>E5/E22</f>
         <v>190.98593171027443</v>
@@ -6278,7 +6274,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E24">
         <f>E5/E20</f>
         <v>7073.5530263064611</v>
@@ -6312,13 +6308,13 @@
       <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="34" customWidth="1"/>
-    <col min="4" max="4" width="23.42578125" customWidth="1"/>
+    <col min="4" max="4" width="23.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>141</v>
       </c>
@@ -6326,7 +6322,7 @@
         <v>0.875</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>142</v>
       </c>
@@ -6337,7 +6333,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>143</v>
       </c>
@@ -6345,7 +6341,7 @@
         <v>21.45</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>144</v>
       </c>
@@ -6354,7 +6350,7 @@
         <v>7.34</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7" s="5" t="s">
         <v>273</v>
       </c>
@@ -6370,7 +6366,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8" s="5" t="s">
         <v>274</v>
       </c>
@@ -6386,7 +6382,7 @@
         <v>0.34586793396698351</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9" s="5" t="s">
         <v>275</v>
       </c>
@@ -6394,7 +6390,7 @@
         <v>1.67</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A10" s="5" t="s">
         <v>254</v>
       </c>
@@ -6409,7 +6405,7 @@
         <v>10.567933966983492</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A11" s="5" t="s">
         <v>276</v>
       </c>
@@ -6427,7 +6423,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A12" s="5" t="s">
         <v>253</v>
       </c>
@@ -6442,7 +6438,7 @@
         <v>8.2279339669834926</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A13" s="5" t="s">
         <v>345</v>
       </c>
@@ -6450,11 +6446,11 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A15" s="5" t="s">
         <v>277</v>
       </c>
@@ -6476,13 +6472,13 @@
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="20.28515625" customWidth="1"/>
-    <col min="2" max="2" width="33.5703125" customWidth="1"/>
+    <col min="1" max="1" width="20.265625" customWidth="1"/>
+    <col min="2" max="2" width="33.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
         <v>225</v>
       </c>
@@ -6490,7 +6486,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>226</v>
       </c>
@@ -6501,22 +6497,22 @@
         <v>227</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="C9" s="3" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="C10" s="3" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="C11" s="3" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>210</v>
       </c>
@@ -6527,7 +6523,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B14" t="s">
         <v>213</v>
       </c>
@@ -6535,7 +6531,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B15" t="s">
         <v>216</v>
       </c>
@@ -6543,7 +6539,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B16" t="s">
         <v>218</v>
       </c>
@@ -6551,7 +6547,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B17" t="s">
         <v>220</v>
       </c>
@@ -6559,7 +6555,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B18" t="s">
         <v>222</v>
       </c>
@@ -6567,7 +6563,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B19" t="s">
         <v>223</v>
       </c>
@@ -6602,32 +6598,32 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" width="95.140625" customWidth="1"/>
+    <col min="3" max="3" width="95.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:4" x14ac:dyDescent="0.45">
       <c r="C6" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="7" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:4" x14ac:dyDescent="0.45">
       <c r="C7" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:4" x14ac:dyDescent="0.45">
       <c r="C9" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:4" x14ac:dyDescent="0.45">
       <c r="C10" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:4" x14ac:dyDescent="0.45">
       <c r="C12" t="s">
         <v>28</v>
       </c>
@@ -6635,7 +6631,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:4" x14ac:dyDescent="0.45">
       <c r="C13" t="s">
         <v>30</v>
       </c>
@@ -6643,7 +6639,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:4" x14ac:dyDescent="0.45">
       <c r="C14" t="s">
         <v>32</v>
       </c>
@@ -6651,12 +6647,12 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:4" x14ac:dyDescent="0.45">
       <c r="C18" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:4" x14ac:dyDescent="0.45">
       <c r="C19" t="s">
         <v>35</v>
       </c>
@@ -6664,7 +6660,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:4" x14ac:dyDescent="0.45">
       <c r="C20" t="s">
         <v>37</v>
       </c>
@@ -6672,7 +6668,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:4" x14ac:dyDescent="0.45">
       <c r="C21" t="s">
         <v>39</v>
       </c>
@@ -6680,7 +6676,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:4" x14ac:dyDescent="0.45">
       <c r="C22" t="s">
         <v>41</v>
       </c>

--- a/Washing Machine Design Calculations.xlsx
+++ b/Washing Machine Design Calculations.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/dcdf7eb514dfaeec/Projects/Microgravity-Press-Washing-Machine/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tommy Rohmann\OneDrive\Projects\Microgravity-Press-Washing-Machine\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1720" documentId="13_ncr:1_{4AAA6B9C-80F3-4AB5-A3F7-F08D2B1D8BA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{94A95C2E-6360-4CD9-AC68-BEE947E29BD9}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D766C26B-1EE4-490E-9437-84C4703C55A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" firstSheet="1" activeTab="4" xr2:uid="{73A7591B-B5CA-4318-9343-9B3FDBEBCAB4}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" activeTab="1" xr2:uid="{73A7591B-B5CA-4318-9343-9B3FDBEBCAB4}"/>
   </bookViews>
   <sheets>
     <sheet name="Design and Material Specs" sheetId="2" r:id="rId1"/>
@@ -2111,14 +2111,14 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="E5" t="s">
         <v>4</v>
       </c>
       <c r="F5">
         <f>AppliedForceNormal*lfb2N</f>
-        <v>4448.2220000000007</v>
+        <v>2668.9332000000004</v>
       </c>
       <c r="M5" t="s">
         <v>203</v>
@@ -2446,8 +2446,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F7F30C8-AEF8-4367-97CA-93B5B12A08F4}">
   <dimension ref="A1:AI56"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2554,7 +2554,7 @@
       </c>
       <c r="L4" s="8">
         <f>B9</f>
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="M4" s="5" t="s">
         <v>103</v>
@@ -2565,7 +2565,7 @@
       </c>
       <c r="Q4" s="1">
         <f>L5</f>
-        <v>562.73483366177425</v>
+        <v>337.64090019706452</v>
       </c>
       <c r="R4" t="s">
         <v>103</v>
@@ -2608,7 +2608,7 @@
       </c>
       <c r="L5" s="7">
         <f>(L4/COS(G16))/COS(RADIANS(27))</f>
-        <v>562.73483366177425</v>
+        <v>337.64090019706452</v>
       </c>
       <c r="M5" s="5" t="s">
         <v>103</v>
@@ -2657,7 +2657,7 @@
       </c>
       <c r="L6" s="7">
         <f>SQRT((L5^2)-(L4^2))</f>
-        <v>258.20629933513379</v>
+        <v>154.92377960108027</v>
       </c>
       <c r="M6" s="5" t="s">
         <v>103</v>
@@ -2723,7 +2723,7 @@
       </c>
       <c r="L7" s="7">
         <f>L5*CoeffStaticFrictionBrassonSteelLubricated</f>
-        <v>106.9196183957371</v>
+        <v>64.151771037442259</v>
       </c>
       <c r="M7" s="5" t="s">
         <v>103</v>
@@ -2788,7 +2788,7 @@
       </c>
       <c r="L8" s="7">
         <f>L6+COS(G16)*L7</f>
-        <v>364.82729191039806</v>
+        <v>218.89637514623882</v>
       </c>
       <c r="M8" s="5" t="s">
         <v>103</v>
@@ -2831,7 +2831,7 @@
       </c>
       <c r="B9" s="7">
         <f>AppliedForceNormal/B8</f>
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>103</v>
@@ -2852,7 +2852,7 @@
       </c>
       <c r="L9" s="27">
         <f>L8*((G10/2)/12)</f>
-        <v>6.4604832942466324</v>
+        <v>3.8762899765479792</v>
       </c>
       <c r="M9" s="5" t="s">
         <v>102</v>
@@ -2919,7 +2919,7 @@
       </c>
       <c r="L10" s="27">
         <f>L9*16*12</f>
-        <v>1240.4127924953534</v>
+        <v>744.24767549721196</v>
       </c>
       <c r="M10" s="5" t="s">
         <v>137</v>
@@ -2983,7 +2983,7 @@
       </c>
       <c r="L11" s="27">
         <f>L9*0.4535*30.48</f>
-        <v>89.301193221717043</v>
+        <v>53.580715933030227</v>
       </c>
       <c r="M11" s="5" t="s">
         <v>138</v>
@@ -3018,7 +3018,7 @@
       </c>
       <c r="B12" s="7">
         <f>SQRT((4*B9*B11)/(B10*PI()))</f>
-        <v>0.19127818286337878</v>
+        <v>0.14816344334453657</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>71</v>
@@ -3038,7 +3038,7 @@
       </c>
       <c r="L12" s="5">
         <f>L9/G13</f>
-        <v>4385.2356495917147</v>
+        <v>2631.1413897550287</v>
       </c>
       <c r="M12" s="5" t="s">
         <v>13</v>
@@ -3384,7 +3384,7 @@
       </c>
       <c r="W22" s="21">
         <f>AppliedForceNormal/2*W21/(W20*W19)</f>
-        <v>0.34482758620689657</v>
+        <v>0.20689655172413793</v>
       </c>
       <c r="X22" s="21" t="s">
         <v>71</v>
@@ -3396,7 +3396,7 @@
       </c>
       <c r="AB22" s="21">
         <f>AB21*AppliedForceNormal*0.5/(2*AB19*AB20)</f>
-        <v>0.17241379310344829</v>
+        <v>0.10344827586206896</v>
       </c>
       <c r="AC22" s="21" t="s">
         <v>71</v>
@@ -3492,7 +3492,7 @@
       </c>
       <c r="B29" s="27">
         <f>ROUND(L9*B8,1)</f>
-        <v>12.9</v>
+        <v>7.8</v>
       </c>
       <c r="C29" s="5" t="s">
         <v>102</v>
@@ -3505,7 +3505,7 @@
       </c>
       <c r="G29">
         <f>B34/(B30/12)</f>
-        <v>50.31</v>
+        <v>30.42</v>
       </c>
     </row>
     <row r="30" spans="1:35" x14ac:dyDescent="0.45">
@@ -3532,7 +3532,7 @@
       </c>
       <c r="B31" s="5">
         <f>B29/(B30/12)</f>
-        <v>77.400000000000006</v>
+        <v>46.800000000000004</v>
       </c>
       <c r="C31" s="5" t="s">
         <v>4</v>
@@ -3570,7 +3570,7 @@
       </c>
       <c r="B34" s="27">
         <f>B29*(B32/B30)*(1-B33+1)</f>
-        <v>8.3849999999999998</v>
+        <v>5.07</v>
       </c>
       <c r="C34" s="5" t="s">
         <v>102</v>
@@ -3586,7 +3586,7 @@
       </c>
       <c r="B35" s="27">
         <f>B34*16*12</f>
-        <v>1609.92</v>
+        <v>973.44</v>
       </c>
       <c r="C35" s="5" t="s">
         <v>137</v>
@@ -3599,7 +3599,7 @@
       </c>
       <c r="B36" s="27">
         <f>B34*0.4535*30.48</f>
-        <v>115.90317180000001</v>
+        <v>70.0809876</v>
       </c>
       <c r="C36" s="5" t="s">
         <v>138</v>
@@ -3665,7 +3665,7 @@
       </c>
       <c r="B43" s="27">
         <f>B34</f>
-        <v>8.3849999999999998</v>
+        <v>5.07</v>
       </c>
       <c r="C43" s="5" t="s">
         <v>102</v>
@@ -3688,7 +3688,7 @@
       </c>
       <c r="B44" s="27">
         <f>B43*16*12</f>
-        <v>1609.92</v>
+        <v>973.44</v>
       </c>
       <c r="C44" s="5" t="s">
         <v>137</v>
@@ -3710,7 +3710,7 @@
       </c>
       <c r="B45" s="27">
         <f>B43*0.4535*30.48</f>
-        <v>115.90317180000001</v>
+        <v>70.0809876</v>
       </c>
       <c r="C45" s="5" t="s">
         <v>138</v>
@@ -3734,7 +3734,7 @@
       </c>
       <c r="B46" s="34">
         <f>B43*1.3558179483</f>
-        <v>11.368533496495498</v>
+        <v>6.873996997881</v>
       </c>
       <c r="C46" s="34" t="s">
         <v>256</v>
@@ -3798,7 +3798,7 @@
     <row r="52" spans="1:6" x14ac:dyDescent="0.45">
       <c r="D52">
         <f>B46</f>
-        <v>11.368533496495498</v>
+        <v>6.873996997881</v>
       </c>
       <c r="E52" t="s">
         <v>256</v>
@@ -3807,14 +3807,14 @@
     <row r="53" spans="1:6" x14ac:dyDescent="0.45">
       <c r="D53">
         <f>D51*D52</f>
-        <v>59.525502191132908</v>
+        <v>35.992164115568741</v>
       </c>
       <c r="E53" t="s">
         <v>260</v>
       </c>
       <c r="F53">
         <f>0.105*90*B46</f>
-        <v>107.43264154188245</v>
+        <v>64.959271629975447</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.45">
@@ -3828,7 +3828,7 @@
     <row r="56" spans="1:6" x14ac:dyDescent="0.45">
       <c r="D56">
         <f>D53/D55</f>
-        <v>2.4802292579638712</v>
+        <v>1.4996735048153642</v>
       </c>
       <c r="E56" t="s">
         <v>262</v>
@@ -3961,7 +3961,7 @@
       </c>
       <c r="B5" s="7">
         <f>(B7*B9*(B4*B8)^2)/((PI()^2)*B6)</f>
-        <v>3.3298664211999082E-3</v>
+        <v>1.9979198527199453E-3</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="11"/>
@@ -4011,7 +4011,7 @@
       </c>
       <c r="L6" s="5">
         <f>AppliedForceNormal</f>
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="M6" s="5" t="s">
         <v>103</v>
@@ -4024,7 +4024,7 @@
       </c>
       <c r="B7" s="8">
         <f>AppliedForceNormal</f>
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="11"/>
@@ -4033,7 +4033,7 @@
       </c>
       <c r="G7" s="5">
         <f>AppliedForceNormal*G6/(G5*G4)</f>
-        <v>0.16420361247947454</v>
+        <v>9.8522167487684734E-2</v>
       </c>
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
@@ -4042,7 +4042,7 @@
       </c>
       <c r="L7" s="34">
         <f>L6/L5</f>
-        <v>565.88424210451672</v>
+        <v>339.53054526271006</v>
       </c>
       <c r="M7" s="34" t="s">
         <v>13</v>
@@ -4095,7 +4095,7 @@
       </c>
       <c r="B10" s="7">
         <f>((4*B5)/PI())^0.25</f>
-        <v>0.25517271392884311</v>
+        <v>0.22458050043819783</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="11"/>
@@ -4104,7 +4104,7 @@
       </c>
       <c r="G10" s="5">
         <f>AppliedForceNormal/G9</f>
-        <v>3660.3828174938362</v>
+        <v>2196.2296904963018</v>
       </c>
       <c r="H10" s="5"/>
       <c r="I10" s="5" t="s">
@@ -4117,7 +4117,7 @@
       </c>
       <c r="B11" s="27">
         <f>B10*2</f>
-        <v>0.51034542785768622</v>
+        <v>0.44916100087639566</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="11"/>
@@ -4369,7 +4369,7 @@
       </c>
       <c r="B25" s="5">
         <f>AppliedForceNormal/B24</f>
-        <v>79.577471545947674</v>
+        <v>47.7464829275686</v>
       </c>
       <c r="C25" s="5" t="s">
         <v>13</v>
@@ -4454,7 +4454,7 @@
       </c>
       <c r="V26" s="5">
         <f>AppliedForceNormal/4</f>
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="W26" s="5" t="s">
         <v>103</v>
@@ -4467,7 +4467,7 @@
       </c>
       <c r="B27" s="34">
         <f>B25*B26</f>
-        <v>952.14843750000011</v>
+        <v>571.2890625</v>
       </c>
       <c r="C27" s="34" t="s">
         <v>103</v>
@@ -4478,7 +4478,7 @@
       </c>
       <c r="G27" s="7">
         <f>((G29/G25)*G31*(G26*G30)^2)/((PI()^2)*G28)</f>
-        <v>7.9263177750730249E-4</v>
+        <v>4.7557906650438149E-4</v>
       </c>
       <c r="H27" s="5"/>
       <c r="I27" s="11"/>
@@ -4487,7 +4487,7 @@
       </c>
       <c r="L27" s="5">
         <f>(G29*L26/G25)/(L25*L24)</f>
-        <v>6.8401468211206906E-2</v>
+        <v>4.1040880926724137E-2</v>
       </c>
       <c r="M27" s="5"/>
       <c r="N27" s="5"/>
@@ -4500,7 +4500,7 @@
       </c>
       <c r="V27" s="34">
         <f>V26/V25</f>
-        <v>565.88424210451672</v>
+        <v>339.53054526271006</v>
       </c>
       <c r="W27" s="34" t="s">
         <v>13</v>
@@ -4537,7 +4537,7 @@
       </c>
       <c r="G29" s="8">
         <f>B27</f>
-        <v>952.14843750000011</v>
+        <v>571.2890625</v>
       </c>
       <c r="H29" s="5" t="s">
         <v>103</v>
@@ -4574,7 +4574,7 @@
       </c>
       <c r="L30" s="5">
         <f>(G29/G25)/L29</f>
-        <v>2320.0601815995365</v>
+        <v>1392.0361089597218</v>
       </c>
       <c r="M30" s="5"/>
       <c r="N30" s="5" t="s">
@@ -4603,7 +4603,7 @@
       </c>
       <c r="G32" s="7">
         <f>((4*G27)/PI())^0.25</f>
-        <v>0.17823598870820678</v>
+        <v>0.15686758558106753</v>
       </c>
       <c r="H32" s="5" t="s">
         <v>162</v>
@@ -4616,7 +4616,7 @@
       </c>
       <c r="G33" s="27">
         <f>SQRT(G32/PI())*2</f>
-        <v>0.47637916528565649</v>
+        <v>0.44691163919609722</v>
       </c>
       <c r="H33" s="5" t="s">
         <v>71</v>
@@ -4790,7 +4790,7 @@
       </c>
       <c r="B44" s="5">
         <f>AppliedForceNormal</f>
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="C44" s="5" t="s">
         <v>103</v>
@@ -4859,7 +4859,7 @@
       </c>
       <c r="B46" s="5">
         <f>B44/2</f>
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="C46" s="5" t="s">
         <v>103</v>
@@ -4891,7 +4891,7 @@
       </c>
       <c r="B47" s="5">
         <f>B46*B45/2</f>
-        <v>1862.5</v>
+        <v>1117.5</v>
       </c>
       <c r="C47" s="5" t="s">
         <v>197</v>
@@ -4902,7 +4902,7 @@
       </c>
       <c r="G47" s="5">
         <f>SQRT((6*B50)/G46)</f>
-        <v>1.1333502365203307</v>
+        <v>0.87788931829269556</v>
       </c>
       <c r="H47" s="5" t="s">
         <v>71</v>
@@ -4913,7 +4913,7 @@
       </c>
       <c r="L47" s="5">
         <f>AppliedForceNormal*L46/(L45*L44)</f>
-        <v>0.14367816091954022</v>
+        <v>8.6206896551724144E-2</v>
       </c>
       <c r="M47" s="5"/>
       <c r="N47" s="5"/>
@@ -4966,7 +4966,7 @@
       </c>
       <c r="B50" s="5">
         <f>B47*B48/B49</f>
-        <v>0.10704022988505747</v>
+        <v>6.4224137931034486E-2</v>
       </c>
       <c r="C50" s="5"/>
       <c r="D50" s="5"/>
@@ -4975,7 +4975,7 @@
       </c>
       <c r="L50" s="5">
         <f>AppliedForceNormal/L49</f>
-        <v>1867.7688276970396</v>
+        <v>1120.6612966182238</v>
       </c>
       <c r="M50" s="5"/>
       <c r="N50" s="5" t="s">
@@ -5060,7 +5060,7 @@
       </c>
       <c r="C7" s="5">
         <f>AppliedForceNormal</f>
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>103</v>
@@ -5129,7 +5129,7 @@
       </c>
       <c r="C9" s="5">
         <f>C7/2</f>
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>103</v>
@@ -5161,7 +5161,7 @@
       </c>
       <c r="C10" s="5">
         <f>C9*C8/2</f>
-        <v>1862.5</v>
+        <v>1117.5</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>197</v>
@@ -5172,7 +5172,7 @@
       </c>
       <c r="H10" s="5">
         <f>SQRT((6*C13)/H9)</f>
-        <v>1.1333502365203307</v>
+        <v>0.87788931829269556</v>
       </c>
       <c r="I10" s="5" t="s">
         <v>71</v>
@@ -5183,7 +5183,7 @@
       </c>
       <c r="M10" s="5">
         <f>AppliedForceNormal*M9/(M8*M7)</f>
-        <v>0.14367816091954022</v>
+        <v>8.6206896551724144E-2</v>
       </c>
       <c r="N10" s="5"/>
       <c r="O10" s="5"/>
@@ -5236,7 +5236,7 @@
       </c>
       <c r="C13" s="5">
         <f>C10*C11/C12</f>
-        <v>0.10704022988505747</v>
+        <v>6.4224137931034486E-2</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
@@ -5245,7 +5245,7 @@
       </c>
       <c r="M13" s="5">
         <f>AppliedForceNormal/M12</f>
-        <v>1867.7688276970396</v>
+        <v>1120.6612966182238</v>
       </c>
       <c r="N13" s="5"/>
       <c r="O13" s="5" t="s">
@@ -5397,7 +5397,7 @@
       </c>
       <c r="M41" s="5">
         <f>C42</f>
-        <v>1200</v>
+        <v>800</v>
       </c>
       <c r="N41" s="5" t="s">
         <v>103</v>
@@ -5410,7 +5410,7 @@
       </c>
       <c r="C42" s="5">
         <f>AppliedForceNormal+C41</f>
-        <v>1200</v>
+        <v>800</v>
       </c>
       <c r="D42" s="5" t="s">
         <v>103</v>
@@ -5479,7 +5479,7 @@
       </c>
       <c r="C44" s="5">
         <f>C42/2</f>
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="D44" s="5" t="s">
         <v>103</v>
@@ -5490,7 +5490,7 @@
       </c>
       <c r="H44" s="27">
         <f>SQRT((6*C48)/H43)</f>
-        <v>0.92382264307715956</v>
+        <v>0.75429802945611568</v>
       </c>
       <c r="I44" s="5" t="s">
         <v>71</v>
@@ -5511,7 +5511,7 @@
       </c>
       <c r="C45" s="5">
         <f>C44*C43/2</f>
-        <v>2475</v>
+        <v>1650</v>
       </c>
       <c r="D45" s="5" t="s">
         <v>197</v>
@@ -5526,7 +5526,7 @@
       </c>
       <c r="M45" s="5">
         <f>M41*M44*FS/(M43*M42)</f>
-        <v>0.34482758620689657</v>
+        <v>0.22988505747126436</v>
       </c>
       <c r="N45" s="5"/>
       <c r="O45" s="11"/>
@@ -5547,7 +5547,7 @@
       </c>
       <c r="M46" s="5">
         <f>2*SQRT((M41*FS/H42)/M43)</f>
-        <v>0.37139067635410372</v>
+        <v>0.30323921743156135</v>
       </c>
       <c r="N46" s="5"/>
       <c r="O46" s="11"/>
@@ -5580,7 +5580,7 @@
       </c>
       <c r="C48" s="34">
         <f>C45*C46/C47</f>
-        <v>0.14224137931034483</v>
+        <v>9.4827586206896547E-2</v>
       </c>
       <c r="D48" s="34" t="s">
         <v>341</v>
@@ -5650,7 +5650,7 @@
       </c>
       <c r="C56" s="5">
         <f>AppliedForceNormal</f>
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="D56" s="5" t="s">
         <v>103</v>
@@ -5671,7 +5671,7 @@
       </c>
       <c r="M56" s="5">
         <f>C56</f>
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="N56" s="5" t="s">
         <v>103</v>
@@ -5718,7 +5718,7 @@
       </c>
       <c r="C58" s="5">
         <f>C56/2</f>
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="D58" s="5" t="s">
         <v>103</v>
@@ -5753,7 +5753,7 @@
       </c>
       <c r="C59" s="5">
         <f>C58*C57/2</f>
-        <v>2062.5</v>
+        <v>1237.5</v>
       </c>
       <c r="D59" s="5" t="s">
         <v>197</v>
@@ -5764,7 +5764,7 @@
       </c>
       <c r="H59" s="27">
         <f>SQRT((6*C62)/H58)</f>
-        <v>0.84333083457900682</v>
+        <v>0.65324125553353907</v>
       </c>
       <c r="I59" s="5" t="s">
         <v>71</v>
@@ -5799,7 +5799,7 @@
       </c>
       <c r="M60" s="5">
         <f>M56*M59*FS/(M58*M57)</f>
-        <v>0.28735632183908044</v>
+        <v>0.17241379310344829</v>
       </c>
       <c r="N60" s="5"/>
       <c r="O60" s="11"/>
@@ -5821,7 +5821,7 @@
       </c>
       <c r="M61" s="5">
         <f>2*SQRT((M56*FS/H57)/M58)</f>
-        <v>0.33903175181040518</v>
+        <v>0.26261286571944509</v>
       </c>
       <c r="N61" s="5"/>
       <c r="O61" s="11"/>
@@ -5832,7 +5832,7 @@
       </c>
       <c r="C62" s="34">
         <f>C59*C60/C61</f>
-        <v>0.11853448275862069</v>
+        <v>7.1120689655172417E-2</v>
       </c>
       <c r="D62" s="34" t="s">
         <v>341</v>
@@ -5919,7 +5919,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3C7E393-217F-47B1-AEB5-314CED4C9834}">
   <dimension ref="C2:L24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B4" workbookViewId="0">
       <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
@@ -5963,7 +5963,7 @@
       </c>
       <c r="E5">
         <f>AppliedForceNormal/E6</f>
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="J5" s="44">
         <f>1/3</f>
@@ -6051,7 +6051,7 @@
       </c>
       <c r="K11" s="45">
         <f>'Motor Sizing Calcs'!L8</f>
-        <v>364.82729191039806</v>
+        <v>218.89637514623882</v>
       </c>
       <c r="L11" t="s">
         <v>103</v>
@@ -6159,7 +6159,7 @@
       </c>
       <c r="K16">
         <f>($K$11*$K$15)</f>
-        <v>1442.8919395056244</v>
+        <v>865.73516370337461</v>
       </c>
       <c r="L16" t="s">
         <v>336</v>
@@ -6181,7 +6181,7 @@
       </c>
       <c r="K17">
         <f>(-1*$K$11*-1*$K$15)</f>
-        <v>1442.8919395056244</v>
+        <v>865.73516370337461</v>
       </c>
       <c r="L17" t="s">
         <v>336</v>
@@ -6193,7 +6193,7 @@
       </c>
       <c r="K18">
         <f>($K$11*-1*$K$14)</f>
-        <v>-1278.7196581459452</v>
+        <v>-767.23179488756705</v>
       </c>
       <c r="L18" t="s">
         <v>336</v>
@@ -6215,7 +6215,7 @@
       </c>
       <c r="K19">
         <f>(-1*$K$11*$K$14)</f>
-        <v>-1278.7196581459452</v>
+        <v>-767.23179488756705</v>
       </c>
       <c r="L19" t="s">
         <v>336</v>
@@ -6234,7 +6234,7 @@
       </c>
       <c r="K20">
         <f>SUM(K16:K19)</f>
-        <v>328.34456271935824</v>
+        <v>197.00673763161512</v>
       </c>
       <c r="L20" t="s">
         <v>336</v>
@@ -6243,7 +6243,7 @@
     <row r="21" spans="4:12" x14ac:dyDescent="0.45">
       <c r="K21">
         <f>K20/12</f>
-        <v>27.362046893279853</v>
+        <v>16.417228135967928</v>
       </c>
       <c r="L21" t="s">
         <v>337</v>
@@ -6261,14 +6261,14 @@
     <row r="23" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E23">
         <f>E5/E22</f>
-        <v>190.98593171027443</v>
+        <v>114.59155902616466</v>
       </c>
       <c r="J23" t="s">
         <v>338</v>
       </c>
       <c r="K23">
         <f>K20/MachineWidth</f>
-        <v>38.628772084630384</v>
+        <v>23.17726325077825</v>
       </c>
       <c r="L23" t="s">
         <v>4</v>
@@ -6277,14 +6277,14 @@
     <row r="24" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E24">
         <f>E5/E20</f>
-        <v>7073.5530263064611</v>
+        <v>4244.1318157838768</v>
       </c>
       <c r="J24" t="s">
         <v>339</v>
       </c>
       <c r="K24">
         <f>K23*MachineHeight/MachineWidth</f>
-        <v>97.4808424959202</v>
+        <v>58.488505497552168</v>
       </c>
       <c r="L24" t="s">
         <v>4</v>

--- a/Washing Machine Design Calculations.xlsx
+++ b/Washing Machine Design Calculations.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tommy Rohmann\OneDrive\Projects\Microgravity-Press-Washing-Machine\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/dcdf7eb514dfaeec/Projects/Microgravity-Press-Washing-Machine/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D766C26B-1EE4-490E-9437-84C4703C55A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="75" documentId="13_ncr:1_{D766C26B-1EE4-490E-9437-84C4703C55A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{73C9E0BE-9C8D-449A-AA26-FEBA4B6F3122}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" activeTab="1" xr2:uid="{73A7591B-B5CA-4318-9343-9B3FDBEBCAB4}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" firstSheet="1" activeTab="3" xr2:uid="{73A7591B-B5CA-4318-9343-9B3FDBEBCAB4}"/>
   </bookViews>
   <sheets>
     <sheet name="Design and Material Specs" sheetId="2" r:id="rId1"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -84,7 +84,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="754" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="350">
   <si>
     <t>Desired Force Application</t>
   </si>
@@ -833,9 +833,6 @@
     <t>Minimum Pin Diameter for Shear Stress</t>
   </si>
   <si>
-    <t>Required Pin Thickness (for hatch beam)</t>
-  </si>
-  <si>
     <t>N</t>
   </si>
   <si>
@@ -947,12 +944,6 @@
     <t>Stress at Location</t>
   </si>
   <si>
-    <t>SuperStructure</t>
-  </si>
-  <si>
-    <t>Access hatch and conduit</t>
-  </si>
-  <si>
     <t>Known based on component sizing</t>
   </si>
   <si>
@@ -1112,16 +1103,37 @@
     <t>in3</t>
   </si>
   <si>
-    <t>Area of Space</t>
-  </si>
-  <si>
-    <t>Cross Sectional Area of Beam</t>
-  </si>
-  <si>
-    <t>Stress Due to Tension</t>
-  </si>
-  <si>
     <t>Top Bearing Thickness</t>
+  </si>
+  <si>
+    <t>Strut Thickness</t>
+  </si>
+  <si>
+    <t>Strut Width</t>
+  </si>
+  <si>
+    <t>Hole Diameter</t>
+  </si>
+  <si>
+    <t>Pin Cross Section Area</t>
+  </si>
+  <si>
+    <t>Holding Pin Calcs</t>
+  </si>
+  <si>
+    <t>Check Strut Cross Section</t>
+  </si>
+  <si>
+    <t>Pin Cross Section Area for Shear</t>
+  </si>
+  <si>
+    <t>Stress</t>
+  </si>
+  <si>
+    <t>Strut Cross Section Area at Hole</t>
+  </si>
+  <si>
+    <t>Width</t>
   </si>
 </sst>
 </file>
@@ -1436,7 +1448,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1505,6 +1517,7 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1674,50 +1687,6 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>609781</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>58118</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="4678949" cy="1484096"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B84E5AE-7496-4690-BB9E-CD18C7C0FD5E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm rot="16200000">
-          <a:off x="2207208" y="1375341"/>
-          <a:ext cx="1484096" cy="4678949"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2088,7 +2057,7 @@
         <v>5</v>
       </c>
       <c r="F4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="M4" t="s">
         <v>9</v>
@@ -2248,7 +2217,7 @@
     </row>
     <row r="16" spans="3:17" x14ac:dyDescent="0.45">
       <c r="M16" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="N16">
         <v>4.4482220000000003</v>
@@ -2446,7 +2415,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F7F30C8-AEF8-4367-97CA-93B5B12A08F4}">
   <dimension ref="A1:AI56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A33" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
@@ -2486,7 +2455,7 @@
       <c r="M2" s="5"/>
       <c r="N2" s="5"/>
       <c r="P2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="3" spans="1:35" x14ac:dyDescent="0.45">
@@ -2561,7 +2530,7 @@
       </c>
       <c r="N4" s="5"/>
       <c r="P4" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="Q4" s="1">
         <f>L5</f>
@@ -2571,7 +2540,7 @@
         <v>103</v>
       </c>
       <c r="S4" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="W4" s="46"/>
       <c r="X4" s="46"/>
@@ -2619,14 +2588,14 @@
       <c r="Y5" s="49"/>
       <c r="Z5" s="46"/>
       <c r="AA5" s="47" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AB5" s="48"/>
       <c r="AC5" s="48"/>
       <c r="AD5" s="49"/>
       <c r="AE5" s="46"/>
       <c r="AF5" s="47" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="AG5" s="48"/>
       <c r="AH5" s="48"/>
@@ -3049,7 +3018,7 @@
         <v>34800</v>
       </c>
       <c r="X12" s="21" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="Y12" s="22"/>
       <c r="Z12" s="46"/>
@@ -3097,7 +3066,7 @@
         <v>8.5488505747126436E-2</v>
       </c>
       <c r="X13" s="51" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="Y13" s="52"/>
       <c r="Z13" s="46"/>
@@ -3207,7 +3176,7 @@
       <c r="Y16" s="46"/>
       <c r="Z16" s="46"/>
       <c r="AA16" s="46" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="AB16" s="46"/>
       <c r="AC16" s="46"/>
@@ -3244,7 +3213,7 @@
       <c r="Y17" s="49"/>
       <c r="Z17" s="46"/>
       <c r="AA17" s="47" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="AB17" s="48"/>
       <c r="AC17" s="48"/>
@@ -3302,7 +3271,7 @@
       <c r="Y19" s="22"/>
       <c r="Z19" s="46"/>
       <c r="AA19" s="13" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="AB19" s="21">
         <f>0.125</f>
@@ -3392,7 +3361,7 @@
       <c r="Y22" s="22"/>
       <c r="Z22" s="46"/>
       <c r="AA22" s="13" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="AB22" s="21">
         <f>AB21*AppliedForceNormal*0.5/(2*AB19*AB20)</f>
@@ -3421,7 +3390,7 @@
       <c r="Y23" s="52"/>
       <c r="Z23" s="46"/>
       <c r="AA23" s="50" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="AB23" s="51">
         <v>0.25</v>
@@ -3442,7 +3411,7 @@
       <c r="Y24" s="46"/>
       <c r="Z24" s="46"/>
       <c r="AA24" s="53" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="AB24" s="46">
         <f>W23+(2*AB23)</f>
@@ -3501,7 +3470,7 @@
         <v>152</v>
       </c>
       <c r="F29" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G29">
         <f>B34/(B30/12)</f>
@@ -3544,7 +3513,7 @@
     </row>
     <row r="32" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A32" s="10" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B32" s="5">
         <v>1.25</v>
@@ -3619,7 +3588,7 @@
     </row>
     <row r="40" spans="1:9" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="F40" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
@@ -3737,7 +3706,7 @@
         <v>6.873996997881</v>
       </c>
       <c r="C46" s="34" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D46" s="30"/>
       <c r="F46" s="10" t="s">
@@ -3780,7 +3749,7 @@
         <v>50</v>
       </c>
       <c r="E50" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.45">
@@ -3789,10 +3758,10 @@
         <v>5.2359877559829888</v>
       </c>
       <c r="E51" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F51" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.45">
@@ -3801,7 +3770,7 @@
         <v>6.873996997881</v>
       </c>
       <c r="E52" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.45">
@@ -3810,7 +3779,7 @@
         <v>35.992164115568741</v>
       </c>
       <c r="E53" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F53">
         <f>0.105*90*B46</f>
@@ -3822,7 +3791,7 @@
         <v>24</v>
       </c>
       <c r="E55" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.45">
@@ -3831,7 +3800,7 @@
         <v>1.4996735048153642</v>
       </c>
       <c r="E56" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F56">
         <f>6000*0.224808943</f>
@@ -3934,7 +3903,7 @@
       </c>
       <c r="D4" s="11"/>
       <c r="F4" s="5" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G4" s="5">
         <f>B12</f>
@@ -3945,7 +3914,7 @@
       </c>
       <c r="I4" s="5"/>
       <c r="K4" s="10" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="L4" s="5">
         <v>0.75</v>
@@ -3977,7 +3946,7 @@
       </c>
       <c r="I5" s="5"/>
       <c r="K5" s="10" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="L5" s="5">
         <f>(L4^2)*PI()</f>
@@ -4038,7 +4007,7 @@
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
       <c r="K7" s="23" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="L7" s="34">
         <f>L6/L5</f>
@@ -4352,7 +4321,7 @@
       <c r="R24" s="5"/>
       <c r="S24" s="5"/>
       <c r="U24" s="10" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="V24" s="5">
         <f>3/8</f>
@@ -4401,7 +4370,7 @@
       <c r="R25" s="5"/>
       <c r="S25" s="5"/>
       <c r="U25" s="10" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="V25" s="5">
         <f>(V24^2)*PI()</f>
@@ -4496,7 +4465,7 @@
       <c r="R27" s="5"/>
       <c r="S27" s="5"/>
       <c r="U27" s="23" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="V27" s="34">
         <f>V26/V25</f>
@@ -4729,7 +4698,7 @@
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.45">
@@ -4807,7 +4776,7 @@
       </c>
       <c r="I44" s="5"/>
       <c r="K44" s="5" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="L44" s="5">
         <v>1</v>
@@ -4829,7 +4798,7 @@
         <v>71</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="F45" s="5" t="s">
         <v>239</v>
@@ -4989,929 +4958,330 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58B192C6-AACC-4DBA-B547-B2E0428B8816}">
-  <dimension ref="A5:O77"/>
+  <dimension ref="A2:H33"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="H45" sqref="H45"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
+    <col min="1" max="1" width="21.796875" customWidth="1"/>
     <col min="2" max="2" width="26.59765625" customWidth="1"/>
     <col min="7" max="7" width="26" customWidth="1"/>
     <col min="12" max="12" width="32.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B5" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="G5" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="L5" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5"/>
-      <c r="O5" s="5"/>
-    </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B6" s="5"/>
-      <c r="C6" s="5" t="s">
-        <v>14</v>
+    <row r="2" spans="1:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B3" s="31"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="33"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B4" s="10" t="s">
+        <v>340</v>
+      </c>
+      <c r="C4" s="5">
+        <v>0.125</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="E4" s="11"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B5" s="10" t="s">
+        <v>341</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="E5" s="11"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B6" s="10" t="s">
+        <v>284</v>
+      </c>
+      <c r="C6">
+        <f>C5*C4</f>
+        <v>0.125</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="J6" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="N6" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="O6" s="5" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B7" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="C7" s="5">
+        <v>162</v>
+      </c>
+      <c r="E6" s="11"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B7" s="10" t="s">
+        <v>347</v>
+      </c>
+      <c r="C7">
+        <f>C18/C6</f>
+        <v>4800</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="11"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B8" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8">
+        <f>C17/C7</f>
+        <v>7.25</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="11"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>344</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>342</v>
+      </c>
+      <c r="C9" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="D9" s="5"/>
+      <c r="E9" s="11"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B10" s="10" t="s">
+        <v>343</v>
+      </c>
+      <c r="C10" s="5">
+        <f>C4*C9</f>
+        <v>3.125E-2</v>
+      </c>
+      <c r="D10" s="5"/>
+      <c r="E10" s="11"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B11" s="54" t="s">
+        <v>347</v>
+      </c>
+      <c r="C11">
+        <f>C18/C10</f>
+        <v>19200</v>
+      </c>
+      <c r="D11" s="5"/>
+      <c r="E11" s="11"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B12" s="54" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12">
+        <f>C17/C11</f>
+        <v>1.8125</v>
+      </c>
+      <c r="D12" s="5"/>
+      <c r="E12" s="11"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>345</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>346</v>
+      </c>
+      <c r="C13">
+        <f>(C9/2)^2*PI()</f>
+        <v>4.9087385212340517E-2</v>
+      </c>
+      <c r="D13" s="5"/>
+      <c r="E13" s="11"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B14" s="10"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="11"/>
+    </row>
+    <row r="15" spans="1:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B15" s="23" t="s">
+        <v>348</v>
+      </c>
+      <c r="C15">
+        <f>C6-C10</f>
+        <v>9.375E-2</v>
+      </c>
+      <c r="D15" s="34"/>
+      <c r="E15" s="30"/>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="C17" s="5">
+        <f>SS303FatigueStrength</f>
+        <v>34800</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="C18" s="5">
         <f>AppliedForceNormal</f>
         <v>600</v>
       </c>
-      <c r="D7" s="5" t="s">
+    </row>
+    <row r="23" spans="2:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B23" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B24" s="31" t="s">
+        <v>267</v>
+      </c>
+      <c r="C24" s="32"/>
+      <c r="D24" s="32"/>
+      <c r="E24" s="33"/>
+      <c r="G24" t="s">
+        <v>349</v>
+      </c>
+      <c r="H24">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B25" s="10"/>
+      <c r="C25" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="G25" t="s">
+        <v>301</v>
+      </c>
+      <c r="H25">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B26" s="10" t="s">
+        <v>268</v>
+      </c>
+      <c r="C26" s="5">
+        <v>200</v>
+      </c>
+      <c r="D26" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="E7" s="5"/>
-      <c r="G7" s="5" t="s">
-        <v>238</v>
-      </c>
-      <c r="H7" s="5">
-        <v>0.25</v>
-      </c>
-      <c r="I7" s="5" t="s">
+      <c r="E26" s="11" t="s">
+        <v>269</v>
+      </c>
+      <c r="G26" t="s">
+        <v>228</v>
+      </c>
+      <c r="H26">
+        <f>(H24*H25^2)/6</f>
+        <v>0.12760416666666666</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B27" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="C27" s="5">
+        <f>AppliedForceNormal+C26</f>
+        <v>800</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="E27" s="11"/>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B28" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="C28" s="5">
+        <f>MachineWidth-0.25</f>
+        <v>8.25</v>
+      </c>
+      <c r="D28" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="J7" s="5"/>
-      <c r="L7" s="5" t="s">
-        <v>272</v>
-      </c>
-      <c r="M7" s="5">
-        <v>1</v>
-      </c>
-      <c r="N7" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="O7" s="5"/>
-    </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B8" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="C8" s="5">
-        <f>3.725*2</f>
-        <v>7.45</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>289</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>239</v>
-      </c>
-      <c r="H8" s="5">
+      <c r="E28" s="11" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B29" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="C29" s="5">
+        <f>C27/2</f>
+        <v>400</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="E29" s="11"/>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B30" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="C30" s="5">
+        <f>C29*C28/2</f>
+        <v>1650</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="E30" s="11"/>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B31" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31" s="5">
         <v>2</v>
       </c>
-      <c r="I8" s="5" t="s">
+      <c r="D31" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="J8" s="5"/>
-      <c r="L8" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="M8" s="5">
+      <c r="E31" s="11"/>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B32" s="10" t="s">
+        <v>241</v>
+      </c>
+      <c r="C32" s="5">
         <f>SS303FatigueStrength</f>
         <v>34800</v>
       </c>
-      <c r="N8" s="5" t="s">
+      <c r="D32" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="O8" s="5"/>
-    </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B9" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="C9" s="5">
-        <f>C7/2</f>
-        <v>300</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="E9" s="5"/>
-      <c r="G9" s="5" t="s">
-        <v>243</v>
-      </c>
-      <c r="H9" s="5">
-        <f>H7*H8</f>
-        <v>0.5</v>
-      </c>
-      <c r="I9" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="J9" s="5"/>
-      <c r="L9" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="M9" s="5">
-        <v>5</v>
-      </c>
-      <c r="N9" s="5"/>
-      <c r="O9" s="5"/>
-    </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B10" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="C10" s="5">
-        <f>C9*C8/2</f>
-        <v>1117.5</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="E10" s="5"/>
-      <c r="G10" s="5" t="s">
-        <v>242</v>
-      </c>
-      <c r="H10" s="5">
-        <f>SQRT((6*C13)/H9)</f>
-        <v>0.87788931829269556</v>
-      </c>
-      <c r="I10" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="J10" s="5"/>
-      <c r="L10" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="M10" s="5">
-        <f>AppliedForceNormal*M9/(M8*M7)</f>
-        <v>8.6206896551724144E-2</v>
-      </c>
-      <c r="N10" s="5"/>
-      <c r="O10" s="5"/>
-    </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B11" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="5">
-        <v>2</v>
-      </c>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="L11" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="M11" s="5">
-        <v>0.25</v>
-      </c>
-      <c r="N11" s="5"/>
-      <c r="O11" s="5"/>
-    </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B12" s="5" t="s">
-        <v>241</v>
-      </c>
-      <c r="C12" s="5">
-        <f>SS303FatigueStrength</f>
-        <v>34800</v>
-      </c>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="L12" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="M12" s="5">
-        <f>(((M7/2)^2)*PI())-(M7*M11)</f>
-        <v>0.53539816339744828</v>
-      </c>
-      <c r="N12" s="5"/>
-      <c r="O12" s="5"/>
-    </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B13" s="5" t="s">
+      <c r="E32" s="11"/>
+    </row>
+    <row r="33" spans="2:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B33" s="23" t="s">
         <v>240</v>
       </c>
-      <c r="C13" s="5">
-        <f>C10*C11/C12</f>
-        <v>6.4224137931034486E-2</v>
-      </c>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="L13" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="M13" s="5">
-        <f>AppliedForceNormal/M12</f>
-        <v>1120.6612966182238</v>
-      </c>
-      <c r="N13" s="5"/>
-      <c r="O13" s="5" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B16" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="17" spans="3:4" x14ac:dyDescent="0.45">
-      <c r="C17" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="18" spans="3:4" x14ac:dyDescent="0.45">
-      <c r="D18">
-        <v>0.125</v>
-      </c>
-    </row>
-    <row r="19" spans="3:4" x14ac:dyDescent="0.45">
-      <c r="D19">
-        <v>8.5</v>
-      </c>
-    </row>
-    <row r="20" spans="3:4" x14ac:dyDescent="0.45">
-      <c r="D20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="3:4" x14ac:dyDescent="0.45">
-      <c r="D21">
-        <f>D20*D18*2</f>
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="22" spans="3:4" x14ac:dyDescent="0.45">
-      <c r="D22">
-        <f>D19*D18</f>
-        <v>1.0625</v>
-      </c>
-    </row>
-    <row r="23" spans="3:4" x14ac:dyDescent="0.45">
-      <c r="C23" t="s">
-        <v>343</v>
-      </c>
-      <c r="D23">
-        <f>D21+D22</f>
-        <v>1.3125</v>
-      </c>
-    </row>
-    <row r="24" spans="3:4" x14ac:dyDescent="0.45">
-      <c r="C24" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="C36" s="3"/>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="C37" s="3"/>
-    </row>
-    <row r="38" spans="1:15" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A38" t="s">
-        <v>288</v>
-      </c>
-      <c r="B38" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="B39" s="31" t="s">
-        <v>268</v>
-      </c>
-      <c r="C39" s="32"/>
-      <c r="D39" s="32"/>
-      <c r="E39" s="33"/>
-      <c r="G39" s="31" t="s">
-        <v>267</v>
-      </c>
-      <c r="H39" s="32"/>
-      <c r="I39" s="32"/>
-      <c r="J39" s="33"/>
-      <c r="L39" s="31" t="s">
-        <v>249</v>
-      </c>
-      <c r="M39" s="32"/>
-      <c r="N39" s="32"/>
-      <c r="O39" s="33"/>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="B40" s="10"/>
-      <c r="C40" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D40" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E40" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="G40" s="10"/>
-      <c r="H40" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I40" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="J40" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="L40" s="10"/>
-      <c r="M40" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="N40" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="O40" s="11" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="B41" s="10" t="s">
-        <v>269</v>
-      </c>
-      <c r="C41" s="5">
-        <v>200</v>
-      </c>
-      <c r="D41" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="E41" s="11" t="s">
-        <v>270</v>
-      </c>
-      <c r="G41" s="10" t="s">
-        <v>238</v>
-      </c>
-      <c r="H41" s="27">
-        <v>0.5</v>
-      </c>
-      <c r="I41" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="J41" s="11"/>
-      <c r="L41" s="10" t="s">
-        <v>191</v>
-      </c>
-      <c r="M41" s="5">
-        <f>C42</f>
-        <v>800</v>
-      </c>
-      <c r="N41" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="O41" s="11"/>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="B42" s="10" t="s">
-        <v>191</v>
-      </c>
-      <c r="C42" s="5">
-        <f>AppliedForceNormal+C41</f>
-        <v>800</v>
-      </c>
-      <c r="D42" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="E42" s="11"/>
-      <c r="G42" s="10" t="s">
-        <v>239</v>
-      </c>
-      <c r="H42" s="27">
-        <v>2</v>
-      </c>
-      <c r="I42" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="J42" s="11"/>
-      <c r="L42" s="10" t="s">
-        <v>246</v>
-      </c>
-      <c r="M42" s="5">
-        <f>H43</f>
-        <v>1</v>
-      </c>
-      <c r="N42" s="5"/>
-      <c r="O42" s="11"/>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="B43" s="10" t="s">
-        <v>192</v>
-      </c>
-      <c r="C43" s="5">
-        <f>MachineWidth-0.25</f>
-        <v>8.25</v>
-      </c>
-      <c r="D43" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="E43" s="11" t="s">
-        <v>245</v>
-      </c>
-      <c r="G43" s="10" t="s">
-        <v>243</v>
-      </c>
-      <c r="H43" s="5">
-        <f>H41*H42</f>
-        <v>1</v>
-      </c>
-      <c r="I43" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="J43" s="11"/>
-      <c r="L43" s="10" t="s">
-        <v>172</v>
-      </c>
-      <c r="M43" s="5">
-        <f>SS303FatigueStrength</f>
-        <v>34800</v>
-      </c>
-      <c r="N43" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="O43" s="11"/>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="B44" s="10" t="s">
-        <v>198</v>
-      </c>
-      <c r="C44" s="5">
-        <f>C42/2</f>
-        <v>400</v>
-      </c>
-      <c r="D44" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="E44" s="11"/>
-      <c r="G44" s="10" t="s">
-        <v>242</v>
-      </c>
-      <c r="H44" s="27">
-        <f>SQRT((6*C48)/H43)</f>
-        <v>0.75429802945611568</v>
-      </c>
-      <c r="I44" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="J44" s="11"/>
-      <c r="L44" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="M44" s="5">
-        <v>5</v>
-      </c>
-      <c r="N44" s="5"/>
-      <c r="O44" s="11"/>
-    </row>
-    <row r="45" spans="1:15" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B45" s="10" t="s">
-        <v>196</v>
-      </c>
-      <c r="C45" s="5">
-        <f>C44*C43/2</f>
-        <v>1650</v>
-      </c>
-      <c r="D45" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="E45" s="11"/>
-      <c r="G45" s="23"/>
-      <c r="H45" s="34"/>
-      <c r="I45" s="34"/>
-      <c r="J45" s="30"/>
-      <c r="L45" s="10" t="s">
-        <v>247</v>
-      </c>
-      <c r="M45" s="5">
-        <f>M41*M44*FS/(M43*M42)</f>
-        <v>0.22988505747126436</v>
-      </c>
-      <c r="N45" s="5"/>
-      <c r="O45" s="11"/>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="B46" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C46" s="5">
-        <v>2</v>
-      </c>
-      <c r="D46" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E46" s="11"/>
-      <c r="L46" s="10" t="s">
-        <v>248</v>
-      </c>
-      <c r="M46" s="5">
-        <f>2*SQRT((M41*FS/H42)/M43)</f>
-        <v>0.30323921743156135</v>
-      </c>
-      <c r="N46" s="5"/>
-      <c r="O46" s="11"/>
-    </row>
-    <row r="47" spans="1:15" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B47" s="10" t="s">
-        <v>241</v>
-      </c>
-      <c r="C47" s="5">
-        <f>SS303FatigueStrength</f>
-        <v>34800</v>
-      </c>
-      <c r="D47" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E47" s="11"/>
-      <c r="L47" s="23" t="s">
-        <v>177</v>
-      </c>
-      <c r="M47" s="34">
-        <f>3/8</f>
-        <v>0.375</v>
-      </c>
-      <c r="N47" s="34"/>
-      <c r="O47" s="30"/>
-    </row>
-    <row r="48" spans="1:15" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B48" s="23" t="s">
-        <v>240</v>
-      </c>
-      <c r="C48" s="34">
-        <f>C45*C46/C47</f>
+      <c r="C33" s="34">
+        <f>C30*C31/C32</f>
         <v>9.4827586206896547E-2</v>
       </c>
-      <c r="D48" s="34" t="s">
-        <v>341</v>
-      </c>
-      <c r="E48" s="30"/>
-    </row>
-    <row r="53" spans="2:15" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B53" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="54" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B54" s="31" t="s">
-        <v>268</v>
-      </c>
-      <c r="C54" s="32"/>
-      <c r="D54" s="32"/>
-      <c r="E54" s="33"/>
-      <c r="G54" s="31" t="s">
-        <v>267</v>
-      </c>
-      <c r="H54" s="32"/>
-      <c r="I54" s="32"/>
-      <c r="J54" s="33"/>
-      <c r="L54" s="31" t="s">
-        <v>249</v>
-      </c>
-      <c r="M54" s="32"/>
-      <c r="N54" s="32"/>
-      <c r="O54" s="33"/>
-    </row>
-    <row r="55" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B55" s="10"/>
-      <c r="C55" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D55" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E55" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="G55" s="10"/>
-      <c r="H55" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I55" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="J55" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="L55" s="10"/>
-      <c r="M55" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="N55" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="O55" s="11" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="56" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B56" s="10" t="s">
-        <v>191</v>
-      </c>
-      <c r="C56" s="5">
-        <f>AppliedForceNormal</f>
-        <v>600</v>
-      </c>
-      <c r="D56" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="E56" s="11"/>
-      <c r="G56" s="10" t="s">
-        <v>238</v>
-      </c>
-      <c r="H56" s="27">
-        <v>0.5</v>
-      </c>
-      <c r="I56" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="J56" s="11"/>
-      <c r="L56" s="10" t="s">
-        <v>191</v>
-      </c>
-      <c r="M56" s="5">
-        <f>C56</f>
-        <v>600</v>
-      </c>
-      <c r="N56" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="O56" s="11"/>
-    </row>
-    <row r="57" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B57" s="10" t="s">
-        <v>192</v>
-      </c>
-      <c r="C57" s="5">
-        <f>MachineWidth-0.25</f>
-        <v>8.25</v>
-      </c>
-      <c r="D57" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="E57" s="11" t="s">
-        <v>245</v>
-      </c>
-      <c r="G57" s="10" t="s">
-        <v>239</v>
-      </c>
-      <c r="H57" s="27">
-        <v>2</v>
-      </c>
-      <c r="I57" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="J57" s="11"/>
-      <c r="L57" s="10" t="s">
-        <v>246</v>
-      </c>
-      <c r="M57" s="5">
-        <f>H58</f>
-        <v>1</v>
-      </c>
-      <c r="N57" s="5"/>
-      <c r="O57" s="11"/>
-    </row>
-    <row r="58" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B58" s="10" t="s">
-        <v>198</v>
-      </c>
-      <c r="C58" s="5">
-        <f>C56/2</f>
-        <v>300</v>
-      </c>
-      <c r="D58" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="E58" s="11"/>
-      <c r="G58" s="10" t="s">
-        <v>243</v>
-      </c>
-      <c r="H58" s="5">
-        <f>H56*H57</f>
-        <v>1</v>
-      </c>
-      <c r="I58" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="J58" s="11"/>
-      <c r="L58" s="10" t="s">
-        <v>172</v>
-      </c>
-      <c r="M58" s="5">
-        <f>SS303FatigueStrength</f>
-        <v>34800</v>
-      </c>
-      <c r="N58" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="O58" s="11"/>
-    </row>
-    <row r="59" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B59" s="10" t="s">
-        <v>196</v>
-      </c>
-      <c r="C59" s="5">
-        <f>C58*C57/2</f>
-        <v>1237.5</v>
-      </c>
-      <c r="D59" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="E59" s="11"/>
-      <c r="G59" s="10" t="s">
-        <v>242</v>
-      </c>
-      <c r="H59" s="27">
-        <f>SQRT((6*C62)/H58)</f>
-        <v>0.65324125553353907</v>
-      </c>
-      <c r="I59" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="J59" s="11"/>
-      <c r="L59" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="M59" s="5">
-        <v>5</v>
-      </c>
-      <c r="N59" s="5"/>
-      <c r="O59" s="11"/>
-    </row>
-    <row r="60" spans="2:15" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B60" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C60" s="5">
-        <v>2</v>
-      </c>
-      <c r="D60" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E60" s="11"/>
-      <c r="G60" s="23"/>
-      <c r="H60" s="34"/>
-      <c r="I60" s="34"/>
-      <c r="J60" s="30"/>
-      <c r="L60" s="10" t="s">
-        <v>247</v>
-      </c>
-      <c r="M60" s="5">
-        <f>M56*M59*FS/(M58*M57)</f>
-        <v>0.17241379310344829</v>
-      </c>
-      <c r="N60" s="5"/>
-      <c r="O60" s="11"/>
-    </row>
-    <row r="61" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B61" s="10" t="s">
-        <v>241</v>
-      </c>
-      <c r="C61" s="5">
-        <f>SS303FatigueStrength</f>
-        <v>34800</v>
-      </c>
-      <c r="D61" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E61" s="11"/>
-      <c r="L61" s="10" t="s">
-        <v>248</v>
-      </c>
-      <c r="M61" s="5">
-        <f>2*SQRT((M56*FS/H57)/M58)</f>
-        <v>0.26261286571944509</v>
-      </c>
-      <c r="N61" s="5"/>
-      <c r="O61" s="11"/>
-    </row>
-    <row r="62" spans="2:15" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B62" s="23" t="s">
-        <v>240</v>
-      </c>
-      <c r="C62" s="34">
-        <f>C59*C60/C61</f>
-        <v>7.1120689655172417E-2</v>
-      </c>
-      <c r="D62" s="34" t="s">
-        <v>341</v>
-      </c>
-      <c r="E62" s="30"/>
-      <c r="L62" s="23" t="s">
-        <v>177</v>
-      </c>
-      <c r="M62" s="34">
-        <f>3/8</f>
-        <v>0.375</v>
-      </c>
-      <c r="N62" s="34"/>
-      <c r="O62" s="30"/>
-    </row>
-    <row r="67" spans="2:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="68" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B68" s="31"/>
-      <c r="C68" s="32"/>
-      <c r="D68" s="32"/>
-      <c r="E68" s="33"/>
-    </row>
-    <row r="69" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B69" s="10"/>
-      <c r="C69" s="5"/>
-      <c r="D69" s="5"/>
-      <c r="E69" s="11"/>
-    </row>
-    <row r="70" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B70" s="10"/>
-      <c r="C70" s="5"/>
-      <c r="D70" s="5"/>
-      <c r="E70" s="11"/>
-    </row>
-    <row r="71" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B71" s="10"/>
-      <c r="C71" s="5"/>
-      <c r="D71" s="5"/>
-      <c r="E71" s="11"/>
-    </row>
-    <row r="72" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B72" s="10"/>
-      <c r="C72" s="5"/>
-      <c r="D72" s="5"/>
-      <c r="E72" s="11"/>
-    </row>
-    <row r="73" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B73" s="10"/>
-      <c r="C73" s="5"/>
-      <c r="D73" s="5"/>
-      <c r="E73" s="11"/>
-    </row>
-    <row r="74" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B74" s="10"/>
-      <c r="C74" s="5"/>
-      <c r="D74" s="5"/>
-      <c r="E74" s="11"/>
-    </row>
-    <row r="75" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B75" s="10"/>
-      <c r="C75" s="5"/>
-      <c r="D75" s="5"/>
-      <c r="E75" s="11"/>
-    </row>
-    <row r="76" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B76" s="10"/>
-      <c r="C76" s="5"/>
-      <c r="D76" s="5"/>
-      <c r="E76" s="11"/>
-    </row>
-    <row r="77" spans="2:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B77" s="23"/>
-      <c r="C77" s="34"/>
-      <c r="D77" s="34"/>
-      <c r="E77" s="30"/>
+      <c r="D33" s="34" t="s">
+        <v>338</v>
+      </c>
+      <c r="E33" s="30"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5932,12 +5302,12 @@
   <sheetData>
     <row r="2" spans="3:12" x14ac:dyDescent="0.45">
       <c r="J2" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
     </row>
     <row r="3" spans="3:12" x14ac:dyDescent="0.45">
       <c r="D3" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="4" spans="3:12" x14ac:dyDescent="0.45">
@@ -5951,15 +5321,15 @@
         <v>5</v>
       </c>
       <c r="J4" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="K4" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="5" spans="3:12" x14ac:dyDescent="0.45">
       <c r="D5" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="E5">
         <f>AppliedForceNormal/E6</f>
@@ -5970,12 +5340,12 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="K5" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="6" spans="3:12" x14ac:dyDescent="0.45">
       <c r="D6" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -5983,18 +5353,18 @@
     </row>
     <row r="7" spans="3:12" x14ac:dyDescent="0.45">
       <c r="D7" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="E7">
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
     </row>
     <row r="8" spans="3:12" x14ac:dyDescent="0.45">
       <c r="D8" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="E8">
         <v>0.5</v>
@@ -6005,10 +5375,10 @@
     </row>
     <row r="9" spans="3:12" x14ac:dyDescent="0.45">
       <c r="C9" s="3" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="D9" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="E9">
         <v>0.4</v>
@@ -6020,7 +5390,7 @@
     <row r="10" spans="3:12" x14ac:dyDescent="0.45">
       <c r="C10" s="3"/>
       <c r="D10" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="E10">
         <f>(E9+E8)/2</f>
@@ -6030,15 +5400,15 @@
         <v>71</v>
       </c>
       <c r="J10" s="45" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="K10" s="45" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="11" spans="3:12" x14ac:dyDescent="0.45">
       <c r="D11" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -6047,7 +5417,7 @@
         <v>71</v>
       </c>
       <c r="J11" s="45" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="K11" s="45">
         <f>'Motor Sizing Calcs'!L8</f>
@@ -6059,19 +5429,19 @@
     </row>
     <row r="12" spans="3:12" x14ac:dyDescent="0.45">
       <c r="C12" s="3" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="D12" t="s">
         <v>116</v>
       </c>
       <c r="E12" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="F12" t="s">
         <v>11</v>
       </c>
       <c r="J12" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="K12">
         <v>3.73</v>
@@ -6082,7 +5452,7 @@
     </row>
     <row r="13" spans="3:12" x14ac:dyDescent="0.45">
       <c r="D13" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="E13">
         <v>18100</v>
@@ -6091,7 +5461,7 @@
         <v>13</v>
       </c>
       <c r="J13" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="K13">
         <f>E10/2</f>
@@ -6103,7 +5473,7 @@
     </row>
     <row r="14" spans="3:12" x14ac:dyDescent="0.45">
       <c r="D14" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="E14">
         <v>27700</v>
@@ -6112,7 +5482,7 @@
         <v>13</v>
       </c>
       <c r="J14" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="K14">
         <f>K12-K13</f>
@@ -6124,16 +5494,16 @@
     </row>
     <row r="15" spans="3:12" x14ac:dyDescent="0.45">
       <c r="D15" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="E15">
         <v>1</v>
       </c>
       <c r="F15" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="J15" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="K15">
         <f>K12+K13</f>
@@ -6145,85 +5515,85 @@
     </row>
     <row r="16" spans="3:12" x14ac:dyDescent="0.45">
       <c r="D16" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="E16">
         <f>E15*J5</f>
         <v>0.33333333333333331</v>
       </c>
       <c r="F16" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="J16" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="K16">
         <f>($K$11*$K$15)</f>
         <v>865.73516370337461</v>
       </c>
       <c r="L16" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="17" spans="4:12" x14ac:dyDescent="0.45">
       <c r="D17" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="E17">
         <f>E7*E16</f>
         <v>3.333333333333333</v>
       </c>
       <c r="F17" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="J17" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="K17">
         <f>(-1*$K$11*-1*$K$15)</f>
         <v>865.73516370337461</v>
       </c>
       <c r="L17" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="18" spans="4:12" x14ac:dyDescent="0.45">
       <c r="J18" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="K18">
         <f>($K$11*-1*$K$14)</f>
         <v>-767.23179488756705</v>
       </c>
       <c r="L18" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="19" spans="4:12" x14ac:dyDescent="0.45">
       <c r="D19" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="E19">
         <f>PI()*E8*(E7/2)</f>
         <v>7.8539816339744828</v>
       </c>
       <c r="F19" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="J19" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="K19">
         <f>(-1*$K$11*$K$14)</f>
         <v>-767.23179488756705</v>
       </c>
       <c r="L19" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="20" spans="4:12" x14ac:dyDescent="0.45">
       <c r="D20" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="E20">
         <f>((E8/2)^2*PI())-((E9/2)^2*PI())</f>
@@ -6237,7 +5607,7 @@
         <v>197.00673763161512</v>
       </c>
       <c r="L20" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="21" spans="4:12" x14ac:dyDescent="0.45">
@@ -6246,12 +5616,12 @@
         <v>16.417228135967928</v>
       </c>
       <c r="L21" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
     </row>
     <row r="22" spans="4:12" x14ac:dyDescent="0.45">
       <c r="D22" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="E22">
         <f>E19*E16</f>
@@ -6264,7 +5634,7 @@
         <v>114.59155902616466</v>
       </c>
       <c r="J23" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="K23">
         <f>K20/MachineWidth</f>
@@ -6280,7 +5650,7 @@
         <v>4244.1318157838768</v>
       </c>
       <c r="J24" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="K24">
         <f>K23*MachineHeight/MachineWidth</f>
@@ -6352,11 +5722,11 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7" s="5" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B7" s="5"/>
       <c r="D7" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E7" cm="1">
         <f t="array" ref="E7">(MMH-PTIH)*(((WCID/2)^2)-((WPRT/2)^2))/((2*((WCID/2)^2))-((WPRT/2)^2))</f>
@@ -6368,14 +5738,14 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8" s="5" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B8" s="5">
         <f>1.5</f>
         <v>1.5</v>
       </c>
       <c r="D8" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E8">
         <f>(WPRT^2)*E7/((WCID^2)-(WPRT^2))</f>
@@ -6384,7 +5754,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9" s="5" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B9" s="5">
         <v>1.67</v>
@@ -6392,13 +5762,13 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A10" s="5" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B10" s="5">
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E10">
         <f>E7+E8+B9+B11</f>
@@ -6407,31 +5777,31 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A11" s="5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B11" s="5">
         <v>1.67</v>
       </c>
       <c r="D11" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E11">
         <f>E7+E8+B11</f>
         <v>8.8979339669834925</v>
       </c>
       <c r="F11" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A12" s="5" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B12" s="5">
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E12">
         <f>E7+E8+B10</f>
@@ -6440,7 +5810,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A13" s="5" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="B13" s="5">
         <v>0.5</v>
@@ -6452,7 +5822,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A15" s="5" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B15" s="5">
         <f>SUM(B8:B13)</f>
